--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Implacable</t>
   </si>
   <si>
     <t>Redoutable</t>
@@ -1637,7 +1640,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1683,7 +1686,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1733,7 +1736,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1744,10 +1747,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D44)</f>
+        <f>SUM(D5:D45)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E44)</f>
+        <f>SUM(E5:E45)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1777,7 +1780,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1800,13 +1803,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1831,7 +1834,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1854,13 +1857,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1885,7 +1888,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1933,7 +1936,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1981,7 +1984,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2029,7 +2032,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2077,7 +2080,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2125,7 +2128,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2173,7 +2176,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2221,7 +2224,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2235,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2269,7 +2272,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2317,7 +2320,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
@@ -2365,55 +2368,55 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2427,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2461,7 +2464,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2509,7 +2512,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2523,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2557,7 +2560,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
@@ -2571,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2605,7 +2608,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2619,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2653,55 +2656,55 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
-      <c r="A23" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="30">
         <f>C23*D23</f>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2715,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2749,7 +2752,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2763,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2797,7 +2800,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2811,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2845,7 +2848,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2859,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2893,7 +2896,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2941,7 +2944,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2955,7 +2958,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2989,7 +2992,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3037,7 +3040,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3051,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3085,7 +3088,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3099,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3133,7 +3136,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3181,7 +3184,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3229,7 +3232,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3243,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3277,7 +3280,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3291,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3325,7 +3328,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3373,7 +3376,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3387,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3421,7 +3424,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
@@ -3435,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3469,7 +3472,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
@@ -3517,55 +3520,55 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="30" t="n">
+      <c r="C41" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
@@ -3613,7 +3616,7 @@
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
@@ -3627,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" s="30">
         <f>COUNTA(F43:AD43)</f>
@@ -3661,7 +3664,7 @@
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
@@ -3675,7 +3678,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3709,15 +3712,55 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="31:32" customHeight="1">
+    <row r="45" spans="1:32" customHeight="1">
+      <c r="A45" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D45" s="30">
+        <f>COUNTA(F45:AD45)</f>
+      </c>
+      <c r="E45" s="30">
+        <f>C45*D45</f>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3725,7 +3768,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3733,7 +3776,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3741,7 +3784,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3749,7 +3792,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3757,7 +3800,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3765,7 +3808,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3773,7 +3816,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3781,7 +3824,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3789,7 +3832,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3797,7 +3840,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3805,7 +3848,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3813,7 +3856,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3821,7 +3864,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3829,7 +3872,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3837,7 +3880,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3845,7 +3888,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3853,7 +3896,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3861,7 +3904,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3869,7 +3912,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3877,7 +3920,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3885,7 +3928,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3893,7 +3936,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3901,7 +3944,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3909,7 +3952,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3917,7 +3960,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3925,7 +3968,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3933,7 +3976,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3941,7 +3984,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3949,7 +3992,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3957,7 +4000,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3965,7 +4008,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3973,7 +4016,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3981,7 +4024,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3989,7 +4032,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3997,7 +4040,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -4005,7 +4048,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -4013,7 +4056,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4021,7 +4064,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -4029,7 +4072,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -4037,7 +4080,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -4045,7 +4088,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -4053,7 +4096,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -4061,7 +4104,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -4069,7 +4112,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -4077,7 +4120,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -4085,7 +4128,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -4093,7 +4136,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -4101,7 +4144,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -4109,7 +4152,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -4117,7 +4160,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -4125,7 +4168,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4133,7 +4176,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4141,7 +4184,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4149,7 +4192,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4157,7 +4200,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4165,7 +4208,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4173,7 +4216,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4181,7 +4224,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4189,7 +4232,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4197,7 +4240,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4213,7 +4256,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4221,7 +4264,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4229,7 +4272,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4237,7 +4280,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4245,7 +4288,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4253,7 +4296,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4261,7 +4304,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4269,7 +4312,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4277,7 +4320,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4285,7 +4328,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4293,7 +4336,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4309,7 +4352,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4317,7 +4360,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4325,7 +4368,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4333,7 +4376,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4341,7 +4384,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4349,7 +4392,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4357,7 +4400,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4365,7 +4408,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4381,7 +4424,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4389,7 +4432,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4397,7 +4440,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4405,7 +4448,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4413,7 +4456,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4421,7 +4464,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4429,7 +4472,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4437,7 +4480,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4445,7 +4488,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4453,7 +4496,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4461,7 +4504,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4469,7 +4512,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4477,7 +4520,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4485,7 +4528,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4493,7 +4536,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4501,7 +4544,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4509,7 +4552,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4517,7 +4560,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4525,7 +4568,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4533,7 +4576,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4541,7 +4584,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4549,7 +4592,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4557,7 +4600,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4565,7 +4608,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4573,7 +4616,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4581,7 +4624,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4589,7 +4632,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4597,7 +4640,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4605,7 +4648,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4613,7 +4656,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4621,7 +4664,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4629,7 +4672,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4637,7 +4680,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4645,7 +4688,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4653,7 +4696,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4661,7 +4704,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4669,7 +4712,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4677,7 +4720,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4685,7 +4728,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4693,7 +4736,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4701,7 +4744,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4709,7 +4752,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4717,7 +4760,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4725,7 +4768,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4733,7 +4776,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4741,7 +4784,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4749,7 +4792,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4757,7 +4800,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4765,7 +4808,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4773,7 +4816,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4781,7 +4824,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4789,7 +4832,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4797,7 +4840,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4805,7 +4848,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4813,7 +4856,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4821,7 +4864,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4829,7 +4872,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4837,7 +4880,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4845,7 +4888,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4853,7 +4896,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4861,7 +4904,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4869,7 +4912,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4877,7 +4920,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4885,7 +4928,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4893,7 +4936,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4901,7 +4944,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4909,7 +4952,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4917,7 +4960,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4925,7 +4968,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4933,7 +4976,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4941,7 +4984,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4949,7 +4992,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4957,7 +5000,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4965,7 +5008,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4973,7 +5016,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4981,7 +5024,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4989,7 +5032,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4997,7 +5040,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -5005,7 +5048,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -5013,7 +5056,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -5021,7 +5064,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -5029,7 +5072,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5037,7 +5080,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -5045,7 +5088,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -5053,7 +5096,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -5061,7 +5104,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -5069,7 +5112,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -5077,7 +5120,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5085,7 +5128,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -5093,7 +5136,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -5101,7 +5144,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -5109,7 +5152,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -5117,7 +5160,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -5125,7 +5168,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5133,7 +5176,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5141,7 +5184,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5149,7 +5192,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5157,7 +5200,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5165,7 +5208,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5173,7 +5216,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5181,7 +5224,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5189,7 +5232,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5197,7 +5240,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5205,7 +5248,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5213,7 +5256,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5221,7 +5264,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5229,7 +5272,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5237,7 +5280,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5245,7 +5288,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5253,7 +5296,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5261,7 +5304,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5269,7 +5312,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5277,7 +5320,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5285,7 +5328,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5293,7 +5336,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5301,7 +5344,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5309,7 +5352,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5317,7 +5360,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5325,7 +5368,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5333,7 +5376,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5341,7 +5384,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5349,7 +5392,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5357,7 +5400,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5365,7 +5408,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5373,7 +5416,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5381,7 +5424,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5389,7 +5432,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5397,7 +5440,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5405,7 +5448,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5413,7 +5456,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5421,7 +5464,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5429,7 +5472,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5437,7 +5480,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5445,7 +5488,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5453,7 +5496,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5461,7 +5504,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5469,7 +5512,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5477,7 +5520,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5485,7 +5528,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5493,7 +5536,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5501,7 +5544,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5509,7 +5552,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5517,7 +5560,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5525,7 +5568,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5533,7 +5576,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5541,7 +5584,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5549,7 +5592,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5557,7 +5600,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5565,7 +5608,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5573,7 +5616,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5581,7 +5624,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5589,7 +5632,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5597,7 +5640,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5605,7 +5648,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5613,7 +5656,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5621,7 +5664,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5629,7 +5672,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5637,7 +5680,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5645,7 +5688,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5653,7 +5696,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5661,7 +5704,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5669,7 +5712,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5677,7 +5720,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5685,7 +5728,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5693,7 +5736,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5701,7 +5744,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5709,7 +5752,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5717,7 +5760,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5725,7 +5768,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5733,7 +5776,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5741,7 +5784,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5749,7 +5792,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5757,7 +5800,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5765,7 +5808,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5773,7 +5816,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5781,7 +5824,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5789,7 +5832,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5797,7 +5840,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5908,7 +5951,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5954,7 +5997,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -6004,7 +6047,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -6048,7 +6091,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -6059,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -6071,13 +6114,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6102,7 +6145,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -6113,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -6125,13 +6168,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6156,7 +6199,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6167,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6204,7 +6247,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6215,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6252,7 +6295,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6263,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6300,7 +6343,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6311,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6348,7 +6391,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6359,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6396,7 +6439,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6407,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6444,7 +6487,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6455,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6492,7 +6535,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6503,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6540,7 +6583,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6551,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6588,7 +6631,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6599,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6636,7 +6679,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6647,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6684,7 +6727,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6695,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6732,7 +6775,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6743,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6780,7 +6823,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6791,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6828,7 +6871,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6839,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6876,7 +6919,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6887,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6924,7 +6967,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6935,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6972,7 +7015,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6983,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7020,7 +7063,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -7031,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7068,7 +7111,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -7079,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7116,7 +7159,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -7124,7 +7167,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7132,7 +7175,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7140,7 +7183,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7148,7 +7191,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7156,7 +7199,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7164,7 +7207,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7172,7 +7215,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7180,7 +7223,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7188,7 +7231,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7196,7 +7239,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7204,7 +7247,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7212,7 +7255,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7220,7 +7263,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7228,7 +7271,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7236,7 +7279,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7252,7 +7295,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7260,7 +7303,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7268,7 +7311,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7276,7 +7319,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7284,7 +7327,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7292,7 +7335,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7300,7 +7343,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7308,7 +7351,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7316,7 +7359,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7324,7 +7367,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7332,7 +7375,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7340,7 +7383,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7348,7 +7391,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7372,7 +7415,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7380,7 +7423,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7388,7 +7431,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7396,7 +7439,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7404,7 +7447,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7412,7 +7455,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7420,7 +7463,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7428,7 +7471,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7444,7 +7487,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7452,7 +7495,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7468,7 +7511,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7476,7 +7519,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7484,7 +7527,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7492,7 +7535,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Port battle calculator by Felix Victor</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>3rd Rate</t>
+  </si>
+  <si>
+    <t>Implacable</t>
   </si>
   <si>
     <t>Redoutable</t>
@@ -1376,7 +1379,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFBC7394"/>
+      <color rgb="FFA44373"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1390,14 +1393,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF6090C3"/>
+      <color rgb="FF3067B7"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFD2D4CB"/>
+      <color rgb="FFD5DFE0"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1411,7 +1414,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF4E5439"/>
+      <color rgb="FF485657"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1430,27 +1433,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2D4CB"/>
+        <fgColor rgb="FFD5DFE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF80866D"/>
+        <fgColor rgb="FF9DB3B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB5B8A9"/>
+        <fgColor rgb="FFC2D0D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEEEA"/>
+        <fgColor rgb="FFE8EDEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F3F1"/>
+        <fgColor rgb="FFE1E3DD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1466,10 +1469,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFB5B8A9"/>
+        <color rgb="FFC2D0D2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB5B8A9"/>
+        <color rgb="FFC2D0D2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,7 +1553,7 @@
       <font>
         <b/>
         <sz val="12"/>
-        <color rgb="FFBC7394"/>
+        <color rgb="FFA44373"/>
         <name val="Calibri"/>
         <family val="1"/>
       </font>
@@ -1637,7 +1640,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>10000</v>
@@ -1683,7 +1686,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>10000</v>
@@ -1733,7 +1736,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
@@ -1744,10 +1747,10 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="21">
-        <f>SUM(D5:D44)</f>
+        <f>SUM(D5:D45)</f>
       </c>
       <c r="E4" s="21">
-        <f>SUM(E5:E44)</f>
+        <f>SUM(E5:E45)</f>
       </c>
       <c r="F4" s="22" t="s">
         <v>11</v>
@@ -1777,7 +1780,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>10000</v>
@@ -1800,13 +1803,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1831,7 +1834,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>10000</v>
@@ -1854,13 +1857,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -1885,7 +1888,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>10000</v>
@@ -1933,7 +1936,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>10000</v>
@@ -1981,7 +1984,7 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>10000</v>
@@ -2029,7 +2032,7 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>10000</v>
@@ -2077,7 +2080,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>10000</v>
@@ -2125,7 +2128,7 @@
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>10000</v>
@@ -2173,7 +2176,7 @@
       <c r="AC12" s="28"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>10000</v>
@@ -2221,7 +2224,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
       <c r="AE13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>10000</v>
@@ -2235,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="26" t="n">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="D14" s="26">
         <f>COUNTA(F14:AD14)</f>
@@ -2269,7 +2272,7 @@
       <c r="AC14" s="28"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>10000</v>
@@ -2317,7 +2320,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
       <c r="AE15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>20000</v>
@@ -2365,55 +2368,55 @@
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
-      <c r="A17" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="26" t="n">
         <v>400</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>COUNTA(F17:AD17)</f>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>C17*D17</f>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
       <c r="AE17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>10000</v>
@@ -2427,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2461,7 +2464,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>10000</v>
@@ -2509,7 +2512,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>10000</v>
@@ -2523,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2557,7 +2560,7 @@
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>10000</v>
@@ -2571,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2605,7 +2608,7 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>20000</v>
@@ -2619,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2653,55 +2656,55 @@
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
       <c r="AE22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
-      <c r="A23" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="26" t="n">
-        <v>280</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="30" t="n">
+        <v>310</v>
+      </c>
+      <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="30">
         <f>C23*D23</f>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
       <c r="AE23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>10000</v>
@@ -2715,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2749,7 +2752,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>10000</v>
@@ -2763,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2797,7 +2800,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>20000</v>
@@ -2811,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D26" s="26">
         <f>COUNTA(F26:AD26)</f>
@@ -2845,7 +2848,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>10000</v>
@@ -2859,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="26" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D27" s="26">
         <f>COUNTA(F27:AD27)</f>
@@ -2893,7 +2896,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
       <c r="AE27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>10000</v>
@@ -2941,7 +2944,7 @@
       <c r="AC28" s="28"/>
       <c r="AD28" s="28"/>
       <c r="AE28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>10000</v>
@@ -2955,7 +2958,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="26" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D29" s="26">
         <f>COUNTA(F29:AD29)</f>
@@ -2989,7 +2992,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>20000</v>
@@ -3037,7 +3040,7 @@
       <c r="AC30" s="28"/>
       <c r="AD30" s="28"/>
       <c r="AE30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>10000</v>
@@ -3051,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="26" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D31" s="26">
         <f>COUNTA(F31:AD31)</f>
@@ -3085,7 +3088,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
       <c r="AE31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>10000</v>
@@ -3099,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D32" s="26">
         <f>COUNTA(F32:AD32)</f>
@@ -3133,7 +3136,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>10000</v>
@@ -3181,7 +3184,7 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>20000</v>
@@ -3229,7 +3232,7 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>20000</v>
@@ -3243,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3277,7 +3280,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
       <c r="AE35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>10000</v>
@@ -3291,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3325,7 +3328,7 @@
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>20000</v>
@@ -3373,7 +3376,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>20000</v>
@@ -3387,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D38" s="26">
         <f>COUNTA(F38:AD38)</f>
@@ -3421,7 +3424,7 @@
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
       <c r="AE38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>10000</v>
@@ -3435,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26">
         <f>COUNTA(F39:AD39)</f>
@@ -3469,7 +3472,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
       <c r="AE39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>10000</v>
@@ -3517,55 +3520,55 @@
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
-      <c r="A41" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="30" t="n">
+      <c r="C41" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="26">
         <f>COUNTA(F41:AD41)</f>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <f>C41*D41</f>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
       <c r="AE41" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>10000</v>
@@ -3613,7 +3616,7 @@
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
       <c r="AE42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>10000</v>
@@ -3627,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" s="30">
         <f>COUNTA(F43:AD43)</f>
@@ -3661,7 +3664,7 @@
       <c r="AC43" s="29"/>
       <c r="AD43" s="29"/>
       <c r="AE43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>10000</v>
@@ -3675,7 +3678,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D44" s="30">
         <f>COUNTA(F44:AD44)</f>
@@ -3709,15 +3712,55 @@
       <c r="AC44" s="29"/>
       <c r="AD44" s="29"/>
       <c r="AE44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="31:32" customHeight="1">
+    <row r="45" spans="1:32" customHeight="1">
+      <c r="A45" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="D45" s="30">
+        <f>COUNTA(F45:AD45)</f>
+      </c>
+      <c r="E45" s="30">
+        <f>C45*D45</f>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
       <c r="AE45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>10000</v>
@@ -3725,7 +3768,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>20000</v>
@@ -3733,7 +3776,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>10000</v>
@@ -3741,7 +3784,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>20000</v>
@@ -3749,7 +3792,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>20000</v>
@@ -3757,7 +3800,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>10000</v>
@@ -3765,7 +3808,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>10000</v>
@@ -3773,7 +3816,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>10000</v>
@@ -3781,7 +3824,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>20000</v>
@@ -3789,7 +3832,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>10000</v>
@@ -3797,7 +3840,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>10000</v>
@@ -3805,7 +3848,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>20000</v>
@@ -3813,7 +3856,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>10000</v>
@@ -3821,7 +3864,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>10000</v>
@@ -3829,7 +3872,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>10000</v>
@@ -3837,7 +3880,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>10000</v>
@@ -3845,7 +3888,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>10000</v>
@@ -3853,7 +3896,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>10000</v>
@@ -3861,7 +3904,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>10000</v>
@@ -3869,7 +3912,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>10000</v>
@@ -3877,7 +3920,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>10000</v>
@@ -3885,7 +3928,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>10000</v>
@@ -3893,7 +3936,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>10000</v>
@@ -3901,7 +3944,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>20000</v>
@@ -3909,7 +3952,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>20000</v>
@@ -3917,7 +3960,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>10000</v>
@@ -3925,7 +3968,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>10000</v>
@@ -3933,7 +3976,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>10000</v>
@@ -3941,7 +3984,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>10000</v>
@@ -3949,7 +3992,7 @@
     </row>
     <row r="74" spans="31:32" customHeight="1">
       <c r="AE74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
         <v>10000</v>
@@ -3957,7 +4000,7 @@
     </row>
     <row r="75" spans="31:32" customHeight="1">
       <c r="AE75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
         <v>10000</v>
@@ -3965,7 +4008,7 @@
     </row>
     <row r="76" spans="31:32" customHeight="1">
       <c r="AE76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
         <v>10000</v>
@@ -3973,7 +4016,7 @@
     </row>
     <row r="77" spans="31:32" customHeight="1">
       <c r="AE77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
         <v>10000</v>
@@ -3981,7 +4024,7 @@
     </row>
     <row r="78" spans="31:32" customHeight="1">
       <c r="AE78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
         <v>10000</v>
@@ -3989,7 +4032,7 @@
     </row>
     <row r="79" spans="31:32" customHeight="1">
       <c r="AE79" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
         <v>10000</v>
@@ -3997,7 +4040,7 @@
     </row>
     <row r="80" spans="31:32" customHeight="1">
       <c r="AE80" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
         <v>10000</v>
@@ -4005,7 +4048,7 @@
     </row>
     <row r="81" spans="31:32" customHeight="1">
       <c r="AE81" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
         <v>10000</v>
@@ -4013,7 +4056,7 @@
     </row>
     <row r="82" spans="31:32" customHeight="1">
       <c r="AE82" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF82" s="0" t="n">
         <v>20000</v>
@@ -4021,7 +4064,7 @@
     </row>
     <row r="83" spans="31:32" customHeight="1">
       <c r="AE83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
         <v>10000</v>
@@ -4029,7 +4072,7 @@
     </row>
     <row r="84" spans="31:32" customHeight="1">
       <c r="AE84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
         <v>10000</v>
@@ -4037,7 +4080,7 @@
     </row>
     <row r="85" spans="31:32" customHeight="1">
       <c r="AE85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
         <v>10000</v>
@@ -4045,7 +4088,7 @@
     </row>
     <row r="86" spans="31:32" customHeight="1">
       <c r="AE86" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
         <v>10000</v>
@@ -4053,7 +4096,7 @@
     </row>
     <row r="87" spans="31:32" customHeight="1">
       <c r="AE87" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
         <v>10000</v>
@@ -4061,7 +4104,7 @@
     </row>
     <row r="88" spans="31:32" customHeight="1">
       <c r="AE88" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
         <v>10000</v>
@@ -4069,7 +4112,7 @@
     </row>
     <row r="89" spans="31:32" customHeight="1">
       <c r="AE89" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
         <v>10000</v>
@@ -4077,7 +4120,7 @@
     </row>
     <row r="90" spans="31:32" customHeight="1">
       <c r="AE90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
         <v>10000</v>
@@ -4085,7 +4128,7 @@
     </row>
     <row r="91" spans="31:32" customHeight="1">
       <c r="AE91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
         <v>10000</v>
@@ -4093,7 +4136,7 @@
     </row>
     <row r="92" spans="31:32" customHeight="1">
       <c r="AE92" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
         <v>10000</v>
@@ -4101,7 +4144,7 @@
     </row>
     <row r="93" spans="31:32" customHeight="1">
       <c r="AE93" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
         <v>10000</v>
@@ -4109,7 +4152,7 @@
     </row>
     <row r="94" spans="31:32" customHeight="1">
       <c r="AE94" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
         <v>10000</v>
@@ -4117,7 +4160,7 @@
     </row>
     <row r="95" spans="31:32" customHeight="1">
       <c r="AE95" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
         <v>10000</v>
@@ -4125,7 +4168,7 @@
     </row>
     <row r="96" spans="31:32" customHeight="1">
       <c r="AE96" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
         <v>10000</v>
@@ -4133,7 +4176,7 @@
     </row>
     <row r="97" spans="31:32" customHeight="1">
       <c r="AE97" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
         <v>10000</v>
@@ -4141,7 +4184,7 @@
     </row>
     <row r="98" spans="31:32" customHeight="1">
       <c r="AE98" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
         <v>10000</v>
@@ -4149,7 +4192,7 @@
     </row>
     <row r="99" spans="31:32" customHeight="1">
       <c r="AE99" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF99" s="0" t="n">
         <v>20000</v>
@@ -4157,7 +4200,7 @@
     </row>
     <row r="100" spans="31:32" customHeight="1">
       <c r="AE100" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
         <v>10000</v>
@@ -4165,7 +4208,7 @@
     </row>
     <row r="101" spans="31:32" customHeight="1">
       <c r="AE101" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
         <v>10000</v>
@@ -4173,7 +4216,7 @@
     </row>
     <row r="102" spans="31:32" customHeight="1">
       <c r="AE102" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
         <v>20000</v>
@@ -4181,7 +4224,7 @@
     </row>
     <row r="103" spans="31:32" customHeight="1">
       <c r="AE103" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
         <v>20000</v>
@@ -4189,7 +4232,7 @@
     </row>
     <row r="104" spans="31:32" customHeight="1">
       <c r="AE104" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
         <v>10000</v>
@@ -4197,7 +4240,7 @@
     </row>
     <row r="105" spans="31:32" customHeight="1">
       <c r="AE105" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
         <v>20000</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="106" spans="31:32" customHeight="1">
       <c r="AE106" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
         <v>10000</v>
@@ -4213,7 +4256,7 @@
     </row>
     <row r="107" spans="31:32" customHeight="1">
       <c r="AE107" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
         <v>10000</v>
@@ -4221,7 +4264,7 @@
     </row>
     <row r="108" spans="31:32" customHeight="1">
       <c r="AE108" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>20000</v>
@@ -4229,7 +4272,7 @@
     </row>
     <row r="109" spans="31:32" customHeight="1">
       <c r="AE109" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
         <v>10000</v>
@@ -4237,7 +4280,7 @@
     </row>
     <row r="110" spans="31:32" customHeight="1">
       <c r="AE110" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
         <v>10000</v>
@@ -4245,7 +4288,7 @@
     </row>
     <row r="111" spans="31:32" customHeight="1">
       <c r="AE111" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
         <v>10000</v>
@@ -4253,7 +4296,7 @@
     </row>
     <row r="112" spans="31:32" customHeight="1">
       <c r="AE112" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
         <v>10000</v>
@@ -4261,7 +4304,7 @@
     </row>
     <row r="113" spans="31:32" customHeight="1">
       <c r="AE113" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
         <v>10000</v>
@@ -4269,7 +4312,7 @@
     </row>
     <row r="114" spans="31:32" customHeight="1">
       <c r="AE114" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
         <v>10000</v>
@@ -4277,7 +4320,7 @@
     </row>
     <row r="115" spans="31:32" customHeight="1">
       <c r="AE115" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
         <v>10000</v>
@@ -4285,7 +4328,7 @@
     </row>
     <row r="116" spans="31:32" customHeight="1">
       <c r="AE116" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF116" s="0" t="n">
         <v>20000</v>
@@ -4293,7 +4336,7 @@
     </row>
     <row r="117" spans="31:32" customHeight="1">
       <c r="AE117" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
         <v>10000</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="118" spans="31:32" customHeight="1">
       <c r="AE118" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
         <v>10000</v>
@@ -4309,7 +4352,7 @@
     </row>
     <row r="119" spans="31:32" customHeight="1">
       <c r="AE119" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
         <v>10000</v>
@@ -4317,7 +4360,7 @@
     </row>
     <row r="120" spans="31:32" customHeight="1">
       <c r="AE120" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
         <v>10000</v>
@@ -4325,7 +4368,7 @@
     </row>
     <row r="121" spans="31:32" customHeight="1">
       <c r="AE121" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
         <v>20000</v>
@@ -4333,7 +4376,7 @@
     </row>
     <row r="122" spans="31:32" customHeight="1">
       <c r="AE122" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
         <v>10000</v>
@@ -4341,7 +4384,7 @@
     </row>
     <row r="123" spans="31:32" customHeight="1">
       <c r="AE123" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
         <v>10000</v>
@@ -4349,7 +4392,7 @@
     </row>
     <row r="124" spans="31:32" customHeight="1">
       <c r="AE124" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
         <v>10000</v>
@@ -4357,7 +4400,7 @@
     </row>
     <row r="125" spans="31:32" customHeight="1">
       <c r="AE125" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
         <v>10000</v>
@@ -4365,7 +4408,7 @@
     </row>
     <row r="126" spans="31:32" customHeight="1">
       <c r="AE126" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
         <v>10000</v>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="127" spans="31:32" customHeight="1">
       <c r="AE127" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
         <v>10000</v>
@@ -4381,7 +4424,7 @@
     </row>
     <row r="128" spans="31:32" customHeight="1">
       <c r="AE128" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
         <v>20000</v>
@@ -4389,7 +4432,7 @@
     </row>
     <row r="129" spans="31:32" customHeight="1">
       <c r="AE129" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF129" s="0" t="n">
         <v>20000</v>
@@ -4397,7 +4440,7 @@
     </row>
     <row r="130" spans="31:32" customHeight="1">
       <c r="AE130" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
         <v>10000</v>
@@ -4405,7 +4448,7 @@
     </row>
     <row r="131" spans="31:32" customHeight="1">
       <c r="AE131" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
         <v>10000</v>
@@ -4413,7 +4456,7 @@
     </row>
     <row r="132" spans="31:32" customHeight="1">
       <c r="AE132" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
         <v>10000</v>
@@ -4421,7 +4464,7 @@
     </row>
     <row r="133" spans="31:32" customHeight="1">
       <c r="AE133" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF133" s="0" t="n">
         <v>20000</v>
@@ -4429,7 +4472,7 @@
     </row>
     <row r="134" spans="31:32" customHeight="1">
       <c r="AE134" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
         <v>10000</v>
@@ -4437,7 +4480,7 @@
     </row>
     <row r="135" spans="31:32" customHeight="1">
       <c r="AE135" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>10000</v>
@@ -4445,7 +4488,7 @@
     </row>
     <row r="136" spans="31:32" customHeight="1">
       <c r="AE136" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
         <v>10000</v>
@@ -4453,7 +4496,7 @@
     </row>
     <row r="137" spans="31:32" customHeight="1">
       <c r="AE137" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
         <v>10000</v>
@@ -4461,7 +4504,7 @@
     </row>
     <row r="138" spans="31:32" customHeight="1">
       <c r="AE138" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
         <v>10000</v>
@@ -4469,7 +4512,7 @@
     </row>
     <row r="139" spans="31:32" customHeight="1">
       <c r="AE139" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
         <v>10000</v>
@@ -4477,7 +4520,7 @@
     </row>
     <row r="140" spans="31:32" customHeight="1">
       <c r="AE140" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
         <v>10000</v>
@@ -4485,7 +4528,7 @@
     </row>
     <row r="141" spans="31:32" customHeight="1">
       <c r="AE141" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
         <v>10000</v>
@@ -4493,7 +4536,7 @@
     </row>
     <row r="142" spans="31:32" customHeight="1">
       <c r="AE142" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
         <v>10000</v>
@@ -4501,7 +4544,7 @@
     </row>
     <row r="143" spans="31:32" customHeight="1">
       <c r="AE143" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
         <v>10000</v>
@@ -4509,7 +4552,7 @@
     </row>
     <row r="144" spans="31:32" customHeight="1">
       <c r="AE144" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
         <v>10000</v>
@@ -4517,7 +4560,7 @@
     </row>
     <row r="145" spans="31:32" customHeight="1">
       <c r="AE145" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF145" s="0" t="n">
         <v>20000</v>
@@ -4525,7 +4568,7 @@
     </row>
     <row r="146" spans="31:32" customHeight="1">
       <c r="AE146" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
         <v>10000</v>
@@ -4533,7 +4576,7 @@
     </row>
     <row r="147" spans="31:32" customHeight="1">
       <c r="AE147" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
         <v>10000</v>
@@ -4541,7 +4584,7 @@
     </row>
     <row r="148" spans="31:32" customHeight="1">
       <c r="AE148" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
         <v>10000</v>
@@ -4549,7 +4592,7 @@
     </row>
     <row r="149" spans="31:32" customHeight="1">
       <c r="AE149" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
         <v>10000</v>
@@ -4557,7 +4600,7 @@
     </row>
     <row r="150" spans="31:32" customHeight="1">
       <c r="AE150" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
         <v>10000</v>
@@ -4565,7 +4608,7 @@
     </row>
     <row r="151" spans="31:32" customHeight="1">
       <c r="AE151" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
         <v>10000</v>
@@ -4573,7 +4616,7 @@
     </row>
     <row r="152" spans="31:32" customHeight="1">
       <c r="AE152" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
         <v>10000</v>
@@ -4581,7 +4624,7 @@
     </row>
     <row r="153" spans="31:32" customHeight="1">
       <c r="AE153" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
         <v>10000</v>
@@ -4589,7 +4632,7 @@
     </row>
     <row r="154" spans="31:32" customHeight="1">
       <c r="AE154" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
         <v>10000</v>
@@ -4597,7 +4640,7 @@
     </row>
     <row r="155" spans="31:32" customHeight="1">
       <c r="AE155" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
         <v>10000</v>
@@ -4605,7 +4648,7 @@
     </row>
     <row r="156" spans="31:32" customHeight="1">
       <c r="AE156" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
         <v>10000</v>
@@ -4613,7 +4656,7 @@
     </row>
     <row r="157" spans="31:32" customHeight="1">
       <c r="AE157" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
         <v>10000</v>
@@ -4621,7 +4664,7 @@
     </row>
     <row r="158" spans="31:32" customHeight="1">
       <c r="AE158" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF158" s="0" t="n">
         <v>20000</v>
@@ -4629,7 +4672,7 @@
     </row>
     <row r="159" spans="31:32" customHeight="1">
       <c r="AE159" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
         <v>10000</v>
@@ -4637,7 +4680,7 @@
     </row>
     <row r="160" spans="31:32" customHeight="1">
       <c r="AE160" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
         <v>10000</v>
@@ -4645,7 +4688,7 @@
     </row>
     <row r="161" spans="31:32" customHeight="1">
       <c r="AE161" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
         <v>10000</v>
@@ -4653,7 +4696,7 @@
     </row>
     <row r="162" spans="31:32" customHeight="1">
       <c r="AE162" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
         <v>10000</v>
@@ -4661,7 +4704,7 @@
     </row>
     <row r="163" spans="31:32" customHeight="1">
       <c r="AE163" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
         <v>20000</v>
@@ -4669,7 +4712,7 @@
     </row>
     <row r="164" spans="31:32" customHeight="1">
       <c r="AE164" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
         <v>10000</v>
@@ -4677,7 +4720,7 @@
     </row>
     <row r="165" spans="31:32" customHeight="1">
       <c r="AE165" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
         <v>10000</v>
@@ -4685,7 +4728,7 @@
     </row>
     <row r="166" spans="31:32" customHeight="1">
       <c r="AE166" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
         <v>10000</v>
@@ -4693,7 +4736,7 @@
     </row>
     <row r="167" spans="31:32" customHeight="1">
       <c r="AE167" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
         <v>10000</v>
@@ -4701,7 +4744,7 @@
     </row>
     <row r="168" spans="31:32" customHeight="1">
       <c r="AE168" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
         <v>10000</v>
@@ -4709,7 +4752,7 @@
     </row>
     <row r="169" spans="31:32" customHeight="1">
       <c r="AE169" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
         <v>10000</v>
@@ -4717,7 +4760,7 @@
     </row>
     <row r="170" spans="31:32" customHeight="1">
       <c r="AE170" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
         <v>20000</v>
@@ -4725,7 +4768,7 @@
     </row>
     <row r="171" spans="31:32" customHeight="1">
       <c r="AE171" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
         <v>10000</v>
@@ -4733,7 +4776,7 @@
     </row>
     <row r="172" spans="31:32" customHeight="1">
       <c r="AE172" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
         <v>10000</v>
@@ -4741,7 +4784,7 @@
     </row>
     <row r="173" spans="31:32" customHeight="1">
       <c r="AE173" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
         <v>10000</v>
@@ -4749,7 +4792,7 @@
     </row>
     <row r="174" spans="31:32" customHeight="1">
       <c r="AE174" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
         <v>10000</v>
@@ -4757,7 +4800,7 @@
     </row>
     <row r="175" spans="31:32" customHeight="1">
       <c r="AE175" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
         <v>10000</v>
@@ -4765,7 +4808,7 @@
     </row>
     <row r="176" spans="31:32" customHeight="1">
       <c r="AE176" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
         <v>10000</v>
@@ -4773,7 +4816,7 @@
     </row>
     <row r="177" spans="31:32" customHeight="1">
       <c r="AE177" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
         <v>25000</v>
@@ -4781,7 +4824,7 @@
     </row>
     <row r="178" spans="31:32" customHeight="1">
       <c r="AE178" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
         <v>10000</v>
@@ -4789,7 +4832,7 @@
     </row>
     <row r="179" spans="31:32" customHeight="1">
       <c r="AE179" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF179" s="0" t="n">
         <v>20000</v>
@@ -4797,7 +4840,7 @@
     </row>
     <row r="180" spans="31:32" customHeight="1">
       <c r="AE180" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
         <v>10000</v>
@@ -4805,7 +4848,7 @@
     </row>
     <row r="181" spans="31:32" customHeight="1">
       <c r="AE181" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
         <v>20000</v>
@@ -4813,7 +4856,7 @@
     </row>
     <row r="182" spans="31:32" customHeight="1">
       <c r="AE182" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
         <v>20000</v>
@@ -4821,7 +4864,7 @@
     </row>
     <row r="183" spans="31:32" customHeight="1">
       <c r="AE183" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF183" s="0" t="n">
         <v>20000</v>
@@ -4829,7 +4872,7 @@
     </row>
     <row r="184" spans="31:32" customHeight="1">
       <c r="AE184" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
         <v>20000</v>
@@ -4837,7 +4880,7 @@
     </row>
     <row r="185" spans="31:32" customHeight="1">
       <c r="AE185" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
         <v>10000</v>
@@ -4845,7 +4888,7 @@
     </row>
     <row r="186" spans="31:32" customHeight="1">
       <c r="AE186" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
         <v>10000</v>
@@ -4853,7 +4896,7 @@
     </row>
     <row r="187" spans="31:32" customHeight="1">
       <c r="AE187" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
         <v>10000</v>
@@ -4861,7 +4904,7 @@
     </row>
     <row r="188" spans="31:32" customHeight="1">
       <c r="AE188" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
         <v>20000</v>
@@ -4869,7 +4912,7 @@
     </row>
     <row r="189" spans="31:32" customHeight="1">
       <c r="AE189" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
         <v>10000</v>
@@ -4877,7 +4920,7 @@
     </row>
     <row r="190" spans="31:32" customHeight="1">
       <c r="AE190" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
         <v>10000</v>
@@ -4885,7 +4928,7 @@
     </row>
     <row r="191" spans="31:32" customHeight="1">
       <c r="AE191" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
         <v>20000</v>
@@ -4893,7 +4936,7 @@
     </row>
     <row r="192" spans="31:32" customHeight="1">
       <c r="AE192" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
         <v>20000</v>
@@ -4901,7 +4944,7 @@
     </row>
     <row r="193" spans="31:32" customHeight="1">
       <c r="AE193" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
         <v>10000</v>
@@ -4909,7 +4952,7 @@
     </row>
     <row r="194" spans="31:32" customHeight="1">
       <c r="AE194" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
         <v>10000</v>
@@ -4917,7 +4960,7 @@
     </row>
     <row r="195" spans="31:32" customHeight="1">
       <c r="AE195" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
         <v>10000</v>
@@ -4925,7 +4968,7 @@
     </row>
     <row r="196" spans="31:32" customHeight="1">
       <c r="AE196" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
         <v>10000</v>
@@ -4933,7 +4976,7 @@
     </row>
     <row r="197" spans="31:32" customHeight="1">
       <c r="AE197" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
         <v>20000</v>
@@ -4941,7 +4984,7 @@
     </row>
     <row r="198" spans="31:32" customHeight="1">
       <c r="AE198" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
         <v>20000</v>
@@ -4949,7 +4992,7 @@
     </row>
     <row r="199" spans="31:32" customHeight="1">
       <c r="AE199" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
         <v>10000</v>
@@ -4957,7 +5000,7 @@
     </row>
     <row r="200" spans="31:32" customHeight="1">
       <c r="AE200" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
         <v>10000</v>
@@ -4965,7 +5008,7 @@
     </row>
     <row r="201" spans="31:32" customHeight="1">
       <c r="AE201" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
         <v>10000</v>
@@ -4973,7 +5016,7 @@
     </row>
     <row r="202" spans="31:32" customHeight="1">
       <c r="AE202" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF202" s="0" t="n">
         <v>20000</v>
@@ -4981,7 +5024,7 @@
     </row>
     <row r="203" spans="31:32" customHeight="1">
       <c r="AE203" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
         <v>10000</v>
@@ -4989,7 +5032,7 @@
     </row>
     <row r="204" spans="31:32" customHeight="1">
       <c r="AE204" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
         <v>10000</v>
@@ -4997,7 +5040,7 @@
     </row>
     <row r="205" spans="31:32" customHeight="1">
       <c r="AE205" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF205" s="0" t="n">
         <v>20000</v>
@@ -5005,7 +5048,7 @@
     </row>
     <row r="206" spans="31:32" customHeight="1">
       <c r="AE206" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
         <v>10000</v>
@@ -5013,7 +5056,7 @@
     </row>
     <row r="207" spans="31:32" customHeight="1">
       <c r="AE207" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
         <v>10000</v>
@@ -5021,7 +5064,7 @@
     </row>
     <row r="208" spans="31:32" customHeight="1">
       <c r="AE208" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
         <v>10000</v>
@@ -5029,7 +5072,7 @@
     </row>
     <row r="209" spans="31:32" customHeight="1">
       <c r="AE209" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF209" s="0" t="n">
         <v>20000</v>
@@ -5037,7 +5080,7 @@
     </row>
     <row r="210" spans="31:32" customHeight="1">
       <c r="AE210" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
         <v>10000</v>
@@ -5045,7 +5088,7 @@
     </row>
     <row r="211" spans="31:32" customHeight="1">
       <c r="AE211" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="0" t="n">
         <v>20000</v>
@@ -5053,7 +5096,7 @@
     </row>
     <row r="212" spans="31:32" customHeight="1">
       <c r="AE212" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
         <v>10000</v>
@@ -5061,7 +5104,7 @@
     </row>
     <row r="213" spans="31:32" customHeight="1">
       <c r="AE213" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
         <v>10000</v>
@@ -5069,7 +5112,7 @@
     </row>
     <row r="214" spans="31:32" customHeight="1">
       <c r="AE214" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
         <v>10000</v>
@@ -5077,7 +5120,7 @@
     </row>
     <row r="215" spans="31:32" customHeight="1">
       <c r="AE215" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF215" s="0" t="n">
         <v>20000</v>
@@ -5085,7 +5128,7 @@
     </row>
     <row r="216" spans="31:32" customHeight="1">
       <c r="AE216" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
         <v>10000</v>
@@ -5093,7 +5136,7 @@
     </row>
     <row r="217" spans="31:32" customHeight="1">
       <c r="AE217" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
         <v>10000</v>
@@ -5101,7 +5144,7 @@
     </row>
     <row r="218" spans="31:32" customHeight="1">
       <c r="AE218" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
         <v>10000</v>
@@ -5109,7 +5152,7 @@
     </row>
     <row r="219" spans="31:32" customHeight="1">
       <c r="AE219" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
         <v>10000</v>
@@ -5117,7 +5160,7 @@
     </row>
     <row r="220" spans="31:32" customHeight="1">
       <c r="AE220" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
         <v>20000</v>
@@ -5125,7 +5168,7 @@
     </row>
     <row r="221" spans="31:32" customHeight="1">
       <c r="AE221" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
         <v>10000</v>
@@ -5133,7 +5176,7 @@
     </row>
     <row r="222" spans="31:32" customHeight="1">
       <c r="AE222" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
         <v>10000</v>
@@ -5141,7 +5184,7 @@
     </row>
     <row r="223" spans="31:32" customHeight="1">
       <c r="AE223" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
         <v>10000</v>
@@ -5149,7 +5192,7 @@
     </row>
     <row r="224" spans="31:32" customHeight="1">
       <c r="AE224" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
         <v>10000</v>
@@ -5157,7 +5200,7 @@
     </row>
     <row r="225" spans="31:32" customHeight="1">
       <c r="AE225" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
         <v>10000</v>
@@ -5165,7 +5208,7 @@
     </row>
     <row r="226" spans="31:32" customHeight="1">
       <c r="AE226" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
         <v>10000</v>
@@ -5173,7 +5216,7 @@
     </row>
     <row r="227" spans="31:32" customHeight="1">
       <c r="AE227" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
         <v>10000</v>
@@ -5181,7 +5224,7 @@
     </row>
     <row r="228" spans="31:32" customHeight="1">
       <c r="AE228" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
         <v>10000</v>
@@ -5189,7 +5232,7 @@
     </row>
     <row r="229" spans="31:32" customHeight="1">
       <c r="AE229" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF229" s="0" t="n">
         <v>20000</v>
@@ -5197,7 +5240,7 @@
     </row>
     <row r="230" spans="31:32" customHeight="1">
       <c r="AE230" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF230" s="0" t="n">
         <v>20000</v>
@@ -5205,7 +5248,7 @@
     </row>
     <row r="231" spans="31:32" customHeight="1">
       <c r="AE231" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
         <v>10000</v>
@@ -5213,7 +5256,7 @@
     </row>
     <row r="232" spans="31:32" customHeight="1">
       <c r="AE232" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
         <v>10000</v>
@@ -5221,7 +5264,7 @@
     </row>
     <row r="233" spans="31:32" customHeight="1">
       <c r="AE233" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
         <v>10000</v>
@@ -5229,7 +5272,7 @@
     </row>
     <row r="234" spans="31:32" customHeight="1">
       <c r="AE234" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
         <v>10000</v>
@@ -5237,7 +5280,7 @@
     </row>
     <row r="235" spans="31:32" customHeight="1">
       <c r="AE235" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
         <v>10000</v>
@@ -5245,7 +5288,7 @@
     </row>
     <row r="236" spans="31:32" customHeight="1">
       <c r="AE236" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
         <v>10000</v>
@@ -5253,7 +5296,7 @@
     </row>
     <row r="237" spans="31:32" customHeight="1">
       <c r="AE237" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
         <v>10000</v>
@@ -5261,7 +5304,7 @@
     </row>
     <row r="238" spans="31:32" customHeight="1">
       <c r="AE238" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
         <v>10000</v>
@@ -5269,7 +5312,7 @@
     </row>
     <row r="239" spans="31:32" customHeight="1">
       <c r="AE239" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF239" s="0" t="n">
         <v>20000</v>
@@ -5277,7 +5320,7 @@
     </row>
     <row r="240" spans="31:32" customHeight="1">
       <c r="AE240" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
         <v>10000</v>
@@ -5285,7 +5328,7 @@
     </row>
     <row r="241" spans="31:32" customHeight="1">
       <c r="AE241" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
         <v>10000</v>
@@ -5293,7 +5336,7 @@
     </row>
     <row r="242" spans="31:32" customHeight="1">
       <c r="AE242" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
         <v>10000</v>
@@ -5301,7 +5344,7 @@
     </row>
     <row r="243" spans="31:32" customHeight="1">
       <c r="AE243" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF243" s="0" t="n">
         <v>20000</v>
@@ -5309,7 +5352,7 @@
     </row>
     <row r="244" spans="31:32" customHeight="1">
       <c r="AE244" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
         <v>10000</v>
@@ -5317,7 +5360,7 @@
     </row>
     <row r="245" spans="31:32" customHeight="1">
       <c r="AE245" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
         <v>10000</v>
@@ -5325,7 +5368,7 @@
     </row>
     <row r="246" spans="31:32" customHeight="1">
       <c r="AE246" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
         <v>25000</v>
@@ -5333,7 +5376,7 @@
     </row>
     <row r="247" spans="31:32" customHeight="1">
       <c r="AE247" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
         <v>10000</v>
@@ -5341,7 +5384,7 @@
     </row>
     <row r="248" spans="31:32" customHeight="1">
       <c r="AE248" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
         <v>10000</v>
@@ -5349,7 +5392,7 @@
     </row>
     <row r="249" spans="31:32" customHeight="1">
       <c r="AE249" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
         <v>10000</v>
@@ -5357,7 +5400,7 @@
     </row>
     <row r="250" spans="31:32" customHeight="1">
       <c r="AE250" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
         <v>10000</v>
@@ -5365,7 +5408,7 @@
     </row>
     <row r="251" spans="31:32" customHeight="1">
       <c r="AE251" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
         <v>10000</v>
@@ -5373,7 +5416,7 @@
     </row>
     <row r="252" spans="31:32" customHeight="1">
       <c r="AE252" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
         <v>10000</v>
@@ -5381,7 +5424,7 @@
     </row>
     <row r="253" spans="31:32" customHeight="1">
       <c r="AE253" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
         <v>10000</v>
@@ -5389,7 +5432,7 @@
     </row>
     <row r="254" spans="31:32" customHeight="1">
       <c r="AE254" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
         <v>10000</v>
@@ -5397,7 +5440,7 @@
     </row>
     <row r="255" spans="31:32" customHeight="1">
       <c r="AE255" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
         <v>10000</v>
@@ -5405,7 +5448,7 @@
     </row>
     <row r="256" spans="31:32" customHeight="1">
       <c r="AE256" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
         <v>10000</v>
@@ -5413,7 +5456,7 @@
     </row>
     <row r="257" spans="31:32" customHeight="1">
       <c r="AE257" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
         <v>10000</v>
@@ -5421,7 +5464,7 @@
     </row>
     <row r="258" spans="31:32" customHeight="1">
       <c r="AE258" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF258" s="0" t="n">
         <v>20000</v>
@@ -5429,7 +5472,7 @@
     </row>
     <row r="259" spans="31:32" customHeight="1">
       <c r="AE259" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
         <v>10000</v>
@@ -5437,7 +5480,7 @@
     </row>
     <row r="260" spans="31:32" customHeight="1">
       <c r="AE260" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
         <v>10000</v>
@@ -5445,7 +5488,7 @@
     </row>
     <row r="261" spans="31:32" customHeight="1">
       <c r="AE261" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
         <v>10000</v>
@@ -5453,7 +5496,7 @@
     </row>
     <row r="262" spans="31:32" customHeight="1">
       <c r="AE262" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
         <v>25000</v>
@@ -5461,7 +5504,7 @@
     </row>
     <row r="263" spans="31:32" customHeight="1">
       <c r="AE263" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
         <v>25000</v>
@@ -5469,7 +5512,7 @@
     </row>
     <row r="264" spans="31:32" customHeight="1">
       <c r="AE264" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
         <v>10000</v>
@@ -5477,7 +5520,7 @@
     </row>
     <row r="265" spans="31:32" customHeight="1">
       <c r="AE265" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF265" s="0" t="n">
         <v>20000</v>
@@ -5485,7 +5528,7 @@
     </row>
     <row r="266" spans="31:32" customHeight="1">
       <c r="AE266" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
         <v>10000</v>
@@ -5493,7 +5536,7 @@
     </row>
     <row r="267" spans="31:32" customHeight="1">
       <c r="AE267" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF267" s="0" t="n">
         <v>20000</v>
@@ -5501,7 +5544,7 @@
     </row>
     <row r="268" spans="31:32" customHeight="1">
       <c r="AE268" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
         <v>20000</v>
@@ -5509,7 +5552,7 @@
     </row>
     <row r="269" spans="31:32" customHeight="1">
       <c r="AE269" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
         <v>10000</v>
@@ -5517,7 +5560,7 @@
     </row>
     <row r="270" spans="31:32" customHeight="1">
       <c r="AE270" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
         <v>10000</v>
@@ -5525,7 +5568,7 @@
     </row>
     <row r="271" spans="31:32" customHeight="1">
       <c r="AE271" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
         <v>10000</v>
@@ -5533,7 +5576,7 @@
     </row>
     <row r="272" spans="31:32" customHeight="1">
       <c r="AE272" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF272" s="0" t="n">
         <v>20000</v>
@@ -5541,7 +5584,7 @@
     </row>
     <row r="273" spans="31:32" customHeight="1">
       <c r="AE273" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
         <v>10000</v>
@@ -5549,7 +5592,7 @@
     </row>
     <row r="274" spans="31:32" customHeight="1">
       <c r="AE274" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
         <v>20000</v>
@@ -5557,7 +5600,7 @@
     </row>
     <row r="275" spans="31:32" customHeight="1">
       <c r="AE275" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
         <v>20000</v>
@@ -5565,7 +5608,7 @@
     </row>
     <row r="276" spans="31:32" customHeight="1">
       <c r="AE276" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
         <v>10000</v>
@@ -5573,7 +5616,7 @@
     </row>
     <row r="277" spans="31:32" customHeight="1">
       <c r="AE277" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
         <v>10000</v>
@@ -5581,7 +5624,7 @@
     </row>
     <row r="278" spans="31:32" customHeight="1">
       <c r="AE278" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
         <v>10000</v>
@@ -5589,7 +5632,7 @@
     </row>
     <row r="279" spans="31:32" customHeight="1">
       <c r="AE279" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
         <v>10000</v>
@@ -5597,7 +5640,7 @@
     </row>
     <row r="280" spans="31:32" customHeight="1">
       <c r="AE280" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
         <v>10000</v>
@@ -5605,7 +5648,7 @@
     </row>
     <row r="281" spans="31:32" customHeight="1">
       <c r="AE281" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
         <v>10000</v>
@@ -5613,7 +5656,7 @@
     </row>
     <row r="282" spans="31:32" customHeight="1">
       <c r="AE282" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
         <v>10000</v>
@@ -5621,7 +5664,7 @@
     </row>
     <row r="283" spans="31:32" customHeight="1">
       <c r="AE283" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
         <v>10000</v>
@@ -5629,7 +5672,7 @@
     </row>
     <row r="284" spans="31:32" customHeight="1">
       <c r="AE284" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
         <v>10000</v>
@@ -5637,7 +5680,7 @@
     </row>
     <row r="285" spans="31:32" customHeight="1">
       <c r="AE285" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
         <v>10000</v>
@@ -5645,7 +5688,7 @@
     </row>
     <row r="286" spans="31:32" customHeight="1">
       <c r="AE286" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
         <v>10000</v>
@@ -5653,7 +5696,7 @@
     </row>
     <row r="287" spans="31:32" customHeight="1">
       <c r="AE287" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
         <v>10000</v>
@@ -5661,7 +5704,7 @@
     </row>
     <row r="288" spans="31:32" customHeight="1">
       <c r="AE288" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF288" s="0" t="n">
         <v>20000</v>
@@ -5669,7 +5712,7 @@
     </row>
     <row r="289" spans="31:32" customHeight="1">
       <c r="AE289" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
         <v>10000</v>
@@ -5677,7 +5720,7 @@
     </row>
     <row r="290" spans="31:32" customHeight="1">
       <c r="AE290" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
         <v>10000</v>
@@ -5685,7 +5728,7 @@
     </row>
     <row r="291" spans="31:32" customHeight="1">
       <c r="AE291" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
         <v>10000</v>
@@ -5693,7 +5736,7 @@
     </row>
     <row r="292" spans="31:32" customHeight="1">
       <c r="AE292" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
         <v>10000</v>
@@ -5701,7 +5744,7 @@
     </row>
     <row r="293" spans="31:32" customHeight="1">
       <c r="AE293" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
         <v>10000</v>
@@ -5709,7 +5752,7 @@
     </row>
     <row r="294" spans="31:32" customHeight="1">
       <c r="AE294" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
         <v>10000</v>
@@ -5717,7 +5760,7 @@
     </row>
     <row r="295" spans="31:32" customHeight="1">
       <c r="AE295" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
         <v>25000</v>
@@ -5725,7 +5768,7 @@
     </row>
     <row r="296" spans="31:32" customHeight="1">
       <c r="AE296" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
         <v>10000</v>
@@ -5733,7 +5776,7 @@
     </row>
     <row r="297" spans="31:32" customHeight="1">
       <c r="AE297" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
         <v>10000</v>
@@ -5741,7 +5784,7 @@
     </row>
     <row r="298" spans="31:32" customHeight="1">
       <c r="AE298" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
         <v>10000</v>
@@ -5749,7 +5792,7 @@
     </row>
     <row r="299" spans="31:32" customHeight="1">
       <c r="AE299" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
         <v>10000</v>
@@ -5757,7 +5800,7 @@
     </row>
     <row r="300" spans="31:32" customHeight="1">
       <c r="AE300" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
         <v>10000</v>
@@ -5765,7 +5808,7 @@
     </row>
     <row r="301" spans="31:32" customHeight="1">
       <c r="AE301" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF301" s="0" t="n">
         <v>20000</v>
@@ -5773,7 +5816,7 @@
     </row>
     <row r="302" spans="31:32" customHeight="1">
       <c r="AE302" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF302" s="0" t="n">
         <v>20000</v>
@@ -5781,7 +5824,7 @@
     </row>
     <row r="303" spans="31:32" customHeight="1">
       <c r="AE303" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
         <v>10000</v>
@@ -5789,7 +5832,7 @@
     </row>
     <row r="304" spans="31:32" customHeight="1">
       <c r="AE304" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
         <v>10000</v>
@@ -5797,7 +5840,7 @@
     </row>
     <row r="305" spans="31:32" customHeight="1">
       <c r="AE305" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
         <v>10000</v>
@@ -5908,7 +5951,7 @@
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
         <v>1500</v>
@@ -5954,7 +5997,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>1500</v>
@@ -6004,7 +6047,7 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>1500</v>
@@ -6048,7 +6091,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
         <v>1500</v>
@@ -6059,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="n">
         <v>215</v>
@@ -6071,13 +6114,13 @@
         <f>C5*D5</f>
       </c>
       <c r="F5" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -6102,7 +6145,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
       <c r="AE5" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
         <v>2500</v>
@@ -6113,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
         <v>130</v>
@@ -6125,13 +6168,13 @@
         <f>C6*D6</f>
       </c>
       <c r="F6" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -6156,7 +6199,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
       <c r="AE6" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
         <v>1500</v>
@@ -6167,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6204,7 +6247,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
       <c r="AE7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1500</v>
@@ -6215,7 +6258,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="n">
         <v>110</v>
@@ -6252,7 +6295,7 @@
       <c r="AC8" s="28"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
         <v>1500</v>
@@ -6263,7 +6306,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="26" t="n">
         <v>100</v>
@@ -6300,7 +6343,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
         <v>1500</v>
@@ -6311,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>100</v>
@@ -6348,7 +6391,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
         <v>1500</v>
@@ -6359,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>100</v>
@@ -6396,7 +6439,7 @@
       <c r="AC11" s="29"/>
       <c r="AD11" s="29"/>
       <c r="AE11" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
         <v>1500</v>
@@ -6407,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>90</v>
@@ -6444,7 +6487,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
         <v>1500</v>
@@ -6455,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>80</v>
@@ -6492,7 +6535,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
         <v>1500</v>
@@ -6503,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>70</v>
@@ -6540,7 +6583,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
         <v>1500</v>
@@ -6551,7 +6594,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>70</v>
@@ -6588,7 +6631,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
         <v>1500</v>
@@ -6599,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>65</v>
@@ -6636,7 +6679,7 @@
       <c r="AC16" s="29"/>
       <c r="AD16" s="29"/>
       <c r="AE16" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>1500</v>
@@ -6647,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>60</v>
@@ -6684,7 +6727,7 @@
       <c r="AC17" s="29"/>
       <c r="AD17" s="29"/>
       <c r="AE17" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
         <v>1500</v>
@@ -6695,7 +6738,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>60</v>
@@ -6732,7 +6775,7 @@
       <c r="AC18" s="29"/>
       <c r="AD18" s="29"/>
       <c r="AE18" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
         <v>1500</v>
@@ -6743,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>45</v>
@@ -6780,7 +6823,7 @@
       <c r="AC19" s="29"/>
       <c r="AD19" s="29"/>
       <c r="AE19" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
         <v>1500</v>
@@ -6791,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>35</v>
@@ -6828,7 +6871,7 @@
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
         <v>1500</v>
@@ -6839,7 +6882,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>30</v>
@@ -6876,7 +6919,7 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
         <v>1500</v>
@@ -6887,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>30</v>
@@ -6924,7 +6967,7 @@
       <c r="AC22" s="28"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
         <v>1500</v>
@@ -6935,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>30</v>
@@ -6972,7 +7015,7 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
       <c r="AE23" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
         <v>1500</v>
@@ -6983,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>30</v>
@@ -7020,7 +7063,7 @@
       <c r="AC24" s="28"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
         <v>1500</v>
@@ -7031,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>30</v>
@@ -7068,7 +7111,7 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
       <c r="AE25" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
         <v>1500</v>
@@ -7079,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>20</v>
@@ -7116,7 +7159,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
         <v>1500</v>
@@ -7124,7 +7167,7 @@
     </row>
     <row r="27" spans="31:32" customHeight="1">
       <c r="AE27" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
         <v>2500</v>
@@ -7132,7 +7175,7 @@
     </row>
     <row r="28" spans="31:32" customHeight="1">
       <c r="AE28" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
         <v>1500</v>
@@ -7140,7 +7183,7 @@
     </row>
     <row r="29" spans="31:32" customHeight="1">
       <c r="AE29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
         <v>1500</v>
@@ -7148,7 +7191,7 @@
     </row>
     <row r="30" spans="31:32" customHeight="1">
       <c r="AE30" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
         <v>1500</v>
@@ -7156,7 +7199,7 @@
     </row>
     <row r="31" spans="31:32" customHeight="1">
       <c r="AE31" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
         <v>1500</v>
@@ -7164,7 +7207,7 @@
     </row>
     <row r="32" spans="31:32" customHeight="1">
       <c r="AE32" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
         <v>1500</v>
@@ -7172,7 +7215,7 @@
     </row>
     <row r="33" spans="31:32" customHeight="1">
       <c r="AE33" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
         <v>1500</v>
@@ -7180,7 +7223,7 @@
     </row>
     <row r="34" spans="31:32" customHeight="1">
       <c r="AE34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
         <v>1500</v>
@@ -7188,7 +7231,7 @@
     </row>
     <row r="35" spans="31:32" customHeight="1">
       <c r="AE35" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
         <v>1500</v>
@@ -7196,7 +7239,7 @@
     </row>
     <row r="36" spans="31:32" customHeight="1">
       <c r="AE36" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
         <v>1500</v>
@@ -7204,7 +7247,7 @@
     </row>
     <row r="37" spans="31:32" customHeight="1">
       <c r="AE37" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
         <v>2500</v>
@@ -7212,7 +7255,7 @@
     </row>
     <row r="38" spans="31:32" customHeight="1">
       <c r="AE38" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
         <v>1500</v>
@@ -7220,7 +7263,7 @@
     </row>
     <row r="39" spans="31:32" customHeight="1">
       <c r="AE39" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
         <v>1500</v>
@@ -7228,7 +7271,7 @@
     </row>
     <row r="40" spans="31:32" customHeight="1">
       <c r="AE40" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
         <v>1500</v>
@@ -7236,7 +7279,7 @@
     </row>
     <row r="41" spans="31:32" customHeight="1">
       <c r="AE41" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
         <v>1500</v>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="42" spans="31:32" customHeight="1">
       <c r="AE42" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
         <v>1500</v>
@@ -7252,7 +7295,7 @@
     </row>
     <row r="43" spans="31:32" customHeight="1">
       <c r="AE43" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
         <v>1500</v>
@@ -7260,7 +7303,7 @@
     </row>
     <row r="44" spans="31:32" customHeight="1">
       <c r="AE44" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
         <v>1500</v>
@@ -7268,7 +7311,7 @@
     </row>
     <row r="45" spans="31:32" customHeight="1">
       <c r="AE45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
         <v>1500</v>
@@ -7276,7 +7319,7 @@
     </row>
     <row r="46" spans="31:32" customHeight="1">
       <c r="AE46" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
         <v>2500</v>
@@ -7284,7 +7327,7 @@
     </row>
     <row r="47" spans="31:32" customHeight="1">
       <c r="AE47" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
         <v>1500</v>
@@ -7292,7 +7335,7 @@
     </row>
     <row r="48" spans="31:32" customHeight="1">
       <c r="AE48" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
         <v>1500</v>
@@ -7300,7 +7343,7 @@
     </row>
     <row r="49" spans="31:32" customHeight="1">
       <c r="AE49" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
         <v>2500</v>
@@ -7308,7 +7351,7 @@
     </row>
     <row r="50" spans="31:32" customHeight="1">
       <c r="AE50" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
         <v>1500</v>
@@ -7316,7 +7359,7 @@
     </row>
     <row r="51" spans="31:32" customHeight="1">
       <c r="AE51" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
         <v>3000</v>
@@ -7324,7 +7367,7 @@
     </row>
     <row r="52" spans="31:32" customHeight="1">
       <c r="AE52" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
         <v>2500</v>
@@ -7332,7 +7375,7 @@
     </row>
     <row r="53" spans="31:32" customHeight="1">
       <c r="AE53" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
         <v>1500</v>
@@ -7340,7 +7383,7 @@
     </row>
     <row r="54" spans="31:32" customHeight="1">
       <c r="AE54" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
         <v>1500</v>
@@ -7348,7 +7391,7 @@
     </row>
     <row r="55" spans="31:32" customHeight="1">
       <c r="AE55" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
         <v>1500</v>
@@ -7356,7 +7399,7 @@
     </row>
     <row r="56" spans="31:32" customHeight="1">
       <c r="AE56" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
         <v>1500</v>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="57" spans="31:32" customHeight="1">
       <c r="AE57" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
         <v>1500</v>
@@ -7372,7 +7415,7 @@
     </row>
     <row r="58" spans="31:32" customHeight="1">
       <c r="AE58" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
         <v>1500</v>
@@ -7380,7 +7423,7 @@
     </row>
     <row r="59" spans="31:32" customHeight="1">
       <c r="AE59" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
         <v>2500</v>
@@ -7388,7 +7431,7 @@
     </row>
     <row r="60" spans="31:32" customHeight="1">
       <c r="AE60" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
         <v>1500</v>
@@ -7396,7 +7439,7 @@
     </row>
     <row r="61" spans="31:32" customHeight="1">
       <c r="AE61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
         <v>2500</v>
@@ -7404,7 +7447,7 @@
     </row>
     <row r="62" spans="31:32" customHeight="1">
       <c r="AE62" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
         <v>1500</v>
@@ -7412,7 +7455,7 @@
     </row>
     <row r="63" spans="31:32" customHeight="1">
       <c r="AE63" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
         <v>1500</v>
@@ -7420,7 +7463,7 @@
     </row>
     <row r="64" spans="31:32" customHeight="1">
       <c r="AE64" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
         <v>1500</v>
@@ -7428,7 +7471,7 @@
     </row>
     <row r="65" spans="31:32" customHeight="1">
       <c r="AE65" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
         <v>1500</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="66" spans="31:32" customHeight="1">
       <c r="AE66" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
         <v>1500</v>
@@ -7444,7 +7487,7 @@
     </row>
     <row r="67" spans="31:32" customHeight="1">
       <c r="AE67" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
         <v>1500</v>
@@ -7452,7 +7495,7 @@
     </row>
     <row r="68" spans="31:32" customHeight="1">
       <c r="AE68" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
         <v>1500</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="69" spans="31:32" customHeight="1">
       <c r="AE69" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
         <v>1500</v>
@@ -7468,7 +7511,7 @@
     </row>
     <row r="70" spans="31:32" customHeight="1">
       <c r="AE70" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
         <v>1500</v>
@@ -7476,7 +7519,7 @@
     </row>
     <row r="71" spans="31:32" customHeight="1">
       <c r="AE71" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
         <v>2500</v>
@@ -7484,7 +7527,7 @@
     </row>
     <row r="72" spans="31:32" customHeight="1">
       <c r="AE72" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
         <v>1500</v>
@@ -7492,7 +7535,7 @@
     </row>
     <row r="73" spans="31:32" customHeight="1">
       <c r="AE73" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
         <v>1500</v>

--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -89,22 +89,22 @@
     <t>Wasa</t>
   </si>
   <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Rättvisan</t>
+  </si>
+  <si>
     <t>Leopard</t>
   </si>
   <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
-  </si>
-  <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
   </si>
   <si>
     <t>Endymion</t>
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -2131,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -2275,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -2419,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -2430,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -2526,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2574,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2622,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2659,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -2670,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2707,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -2755,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -2899,7 +2899,7 @@
         <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
@@ -3043,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
@@ -3091,7 +3091,7 @@
         <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
@@ -3331,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:32" customHeight="1">
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
@@ -3619,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
@@ -3715,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
@@ -3763,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -3779,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -3819,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -3835,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -3843,7 +3843,7 @@
         <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -3851,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -3859,7 +3859,7 @@
         <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -3867,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -3883,7 +3883,7 @@
         <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -3899,7 +3899,7 @@
         <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -3907,7 +3907,7 @@
         <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -3915,7 +3915,7 @@
         <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -3923,7 +3923,7 @@
         <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -3931,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -3971,7 +3971,7 @@
         <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -3987,7 +3987,7 @@
         <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="74" spans="31:32" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="31:32" customHeight="1">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="31:32" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="31:32" customHeight="1">
@@ -4019,7 +4019,7 @@
         <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="31:32" customHeight="1">
@@ -4027,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="31:32" customHeight="1">
@@ -4035,7 +4035,7 @@
         <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="80" spans="31:32" customHeight="1">
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81" spans="31:32" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" spans="31:32" customHeight="1">
@@ -4067,7 +4067,7 @@
         <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="31:32" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="31:32" customHeight="1">
@@ -4091,7 +4091,7 @@
         <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="31:32" customHeight="1">
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="31:32" customHeight="1">
@@ -4107,7 +4107,7 @@
         <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="31:32" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="90" spans="31:32" customHeight="1">
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="91" spans="31:32" customHeight="1">
@@ -4131,7 +4131,7 @@
         <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="31:32" customHeight="1">
@@ -4147,7 +4147,7 @@
         <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="94" spans="31:32" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="95" spans="31:32" customHeight="1">
@@ -4163,7 +4163,7 @@
         <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="31:32" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="97" spans="31:32" customHeight="1">
@@ -4179,7 +4179,7 @@
         <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="31:32" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="31:32" customHeight="1">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="103" spans="31:32" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" spans="31:32" customHeight="1">
@@ -4235,7 +4235,7 @@
         <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="105" spans="31:32" customHeight="1">
@@ -4243,7 +4243,7 @@
         <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="106" spans="31:32" customHeight="1">
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="31:32" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="109" spans="31:32" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="110" spans="31:32" customHeight="1">
@@ -4283,7 +4283,7 @@
         <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="111" spans="31:32" customHeight="1">
@@ -4291,7 +4291,7 @@
         <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="31:32" customHeight="1">
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="113" spans="31:32" customHeight="1">
@@ -4307,7 +4307,7 @@
         <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="31:32" customHeight="1">
@@ -4315,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="115" spans="31:32" customHeight="1">
@@ -4323,7 +4323,7 @@
         <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="116" spans="31:32" customHeight="1">
@@ -4355,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="120" spans="31:32" customHeight="1">
@@ -4371,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="31:32" customHeight="1">
@@ -4395,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="125" spans="31:32" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="126" spans="31:32" customHeight="1">
@@ -4419,7 +4419,7 @@
         <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="128" spans="31:32" customHeight="1">
@@ -4427,7 +4427,7 @@
         <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="129" spans="31:32" customHeight="1">
@@ -4451,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="132" spans="31:32" customHeight="1">
@@ -4459,7 +4459,7 @@
         <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="133" spans="31:32" customHeight="1">
@@ -4475,7 +4475,7 @@
         <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="135" spans="31:32" customHeight="1">
@@ -4483,7 +4483,7 @@
         <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="136" spans="31:32" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="137" spans="31:32" customHeight="1">
@@ -4499,7 +4499,7 @@
         <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="138" spans="31:32" customHeight="1">
@@ -4507,7 +4507,7 @@
         <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="139" spans="31:32" customHeight="1">
@@ -4515,7 +4515,7 @@
         <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="140" spans="31:32" customHeight="1">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="142" spans="31:32" customHeight="1">
@@ -4539,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="143" spans="31:32" customHeight="1">
@@ -4547,7 +4547,7 @@
         <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="31:32" customHeight="1">
@@ -4555,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="145" spans="31:32" customHeight="1">
@@ -4579,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="148" spans="31:32" customHeight="1">
@@ -4587,7 +4587,7 @@
         <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="149" spans="31:32" customHeight="1">
@@ -4595,7 +4595,7 @@
         <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="150" spans="31:32" customHeight="1">
@@ -4603,7 +4603,7 @@
         <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="151" spans="31:32" customHeight="1">
@@ -4627,7 +4627,7 @@
         <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="154" spans="31:32" customHeight="1">
@@ -4635,7 +4635,7 @@
         <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="155" spans="31:32" customHeight="1">
@@ -4643,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="156" spans="31:32" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="158" spans="31:32" customHeight="1">
@@ -4675,7 +4675,7 @@
         <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="160" spans="31:32" customHeight="1">
@@ -4691,7 +4691,7 @@
         <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="162" spans="31:32" customHeight="1">
@@ -4699,7 +4699,7 @@
         <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="163" spans="31:32" customHeight="1">
@@ -4707,7 +4707,7 @@
         <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="164" spans="31:32" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="165" spans="31:32" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="166" spans="31:32" customHeight="1">
@@ -4747,7 +4747,7 @@
         <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="169" spans="31:32" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="170" spans="31:32" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="171" spans="31:32" customHeight="1">
@@ -4771,7 +4771,7 @@
         <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="172" spans="31:32" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="173" spans="31:32" customHeight="1">
@@ -4787,7 +4787,7 @@
         <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="174" spans="31:32" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="175" spans="31:32" customHeight="1">
@@ -4803,7 +4803,7 @@
         <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="176" spans="31:32" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="177" spans="31:32" customHeight="1">
@@ -4819,7 +4819,7 @@
         <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="178" spans="31:32" customHeight="1">
@@ -4827,7 +4827,7 @@
         <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="179" spans="31:32" customHeight="1">
@@ -4843,7 +4843,7 @@
         <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="181" spans="31:32" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="182" spans="31:32" customHeight="1">
@@ -4859,7 +4859,7 @@
         <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="183" spans="31:32" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="185" spans="31:32" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="186" spans="31:32" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="187" spans="31:32" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="188" spans="31:32" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="189" spans="31:32" customHeight="1">
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="190" spans="31:32" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="192" spans="31:32" customHeight="1">
@@ -4939,7 +4939,7 @@
         <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="31:32" customHeight="1">
@@ -4947,7 +4947,7 @@
         <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="194" spans="31:32" customHeight="1">
@@ -4955,7 +4955,7 @@
         <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="195" spans="31:32" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="196" spans="31:32" customHeight="1">
@@ -4971,7 +4971,7 @@
         <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="197" spans="31:32" customHeight="1">
@@ -4979,7 +4979,7 @@
         <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="198" spans="31:32" customHeight="1">
@@ -4987,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="199" spans="31:32" customHeight="1">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="31:32" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="207" spans="31:32" customHeight="1">
@@ -5067,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="209" spans="31:32" customHeight="1">
@@ -5083,7 +5083,7 @@
         <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="211" spans="31:32" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="214" spans="31:32" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="215" spans="31:32" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="217" spans="31:32" customHeight="1">
@@ -5147,7 +5147,7 @@
         <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="219" spans="31:32" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="221" spans="31:32" customHeight="1">
@@ -5171,7 +5171,7 @@
         <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="222" spans="31:32" customHeight="1">
@@ -5187,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="224" spans="31:32" customHeight="1">
@@ -5195,7 +5195,7 @@
         <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="225" spans="31:32" customHeight="1">
@@ -5203,7 +5203,7 @@
         <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="226" spans="31:32" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="227" spans="31:32" customHeight="1">
@@ -5219,7 +5219,7 @@
         <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="228" spans="31:32" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="232" spans="31:32" customHeight="1">
@@ -5259,7 +5259,7 @@
         <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="31:32" customHeight="1">
@@ -5267,7 +5267,7 @@
         <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="234" spans="31:32" customHeight="1">
@@ -5283,7 +5283,7 @@
         <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="236" spans="31:32" customHeight="1">
@@ -5307,7 +5307,7 @@
         <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="239" spans="31:32" customHeight="1">
@@ -5323,7 +5323,7 @@
         <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="241" spans="31:32" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="242" spans="31:32" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="245" spans="31:32" customHeight="1">
@@ -5363,7 +5363,7 @@
         <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="246" spans="31:32" customHeight="1">
@@ -5371,7 +5371,7 @@
         <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="247" spans="31:32" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="249" spans="31:32" customHeight="1">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="250" spans="31:32" customHeight="1">
@@ -5403,7 +5403,7 @@
         <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="251" spans="31:32" customHeight="1">
@@ -5411,7 +5411,7 @@
         <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="252" spans="31:32" customHeight="1">
@@ -5419,7 +5419,7 @@
         <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="253" spans="31:32" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="255" spans="31:32" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="256" spans="31:32" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="257" spans="31:32" customHeight="1">
@@ -5459,7 +5459,7 @@
         <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="258" spans="31:32" customHeight="1">
@@ -5475,7 +5475,7 @@
         <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="260" spans="31:32" customHeight="1">
@@ -5483,7 +5483,7 @@
         <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="261" spans="31:32" customHeight="1">
@@ -5491,7 +5491,7 @@
         <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="262" spans="31:32" customHeight="1">
@@ -5499,7 +5499,7 @@
         <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="263" spans="31:32" customHeight="1">
@@ -5507,7 +5507,7 @@
         <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="264" spans="31:32" customHeight="1">
@@ -5531,7 +5531,7 @@
         <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="267" spans="31:32" customHeight="1">
@@ -5547,7 +5547,7 @@
         <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269" spans="31:32" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="270" spans="31:32" customHeight="1">
@@ -5571,7 +5571,7 @@
         <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="272" spans="31:32" customHeight="1">
@@ -5587,7 +5587,7 @@
         <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="274" spans="31:32" customHeight="1">
@@ -5595,7 +5595,7 @@
         <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="275" spans="31:32" customHeight="1">
@@ -5603,7 +5603,7 @@
         <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="276" spans="31:32" customHeight="1">
@@ -5619,7 +5619,7 @@
         <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="278" spans="31:32" customHeight="1">
@@ -5627,7 +5627,7 @@
         <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="279" spans="31:32" customHeight="1">
@@ -5635,7 +5635,7 @@
         <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="280" spans="31:32" customHeight="1">
@@ -5643,7 +5643,7 @@
         <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="281" spans="31:32" customHeight="1">
@@ -5659,7 +5659,7 @@
         <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="283" spans="31:32" customHeight="1">
@@ -5667,7 +5667,7 @@
         <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="284" spans="31:32" customHeight="1">
@@ -5675,7 +5675,7 @@
         <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="285" spans="31:32" customHeight="1">
@@ -5691,7 +5691,7 @@
         <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="287" spans="31:32" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="288" spans="31:32" customHeight="1">
@@ -5723,7 +5723,7 @@
         <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="291" spans="31:32" customHeight="1">
@@ -5731,7 +5731,7 @@
         <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="292" spans="31:32" customHeight="1">
@@ -5739,7 +5739,7 @@
         <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="293" spans="31:32" customHeight="1">
@@ -5747,7 +5747,7 @@
         <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="294" spans="31:32" customHeight="1">
@@ -5763,7 +5763,7 @@
         <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="296" spans="31:32" customHeight="1">
@@ -5771,7 +5771,7 @@
         <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="297" spans="31:32" customHeight="1">
@@ -5779,7 +5779,7 @@
         <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="298" spans="31:32" customHeight="1">
@@ -5787,7 +5787,7 @@
         <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="299" spans="31:32" customHeight="1">
@@ -5803,7 +5803,7 @@
         <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="301" spans="31:32" customHeight="1">
@@ -5827,7 +5827,7 @@
         <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="304" spans="31:32" customHeight="1">
@@ -5835,7 +5835,7 @@
         <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="305" spans="31:32" customHeight="1">
@@ -5954,7 +5954,7 @@
         <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -6000,7 +6000,7 @@
         <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -6050,7 +6050,7 @@
         <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -6094,7 +6094,7 @@
         <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -6148,7 +6148,7 @@
         <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -6202,7 +6202,7 @@
         <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -6250,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -6298,7 +6298,7 @@
         <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -6346,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -6394,7 +6394,7 @@
         <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -6442,7 +6442,7 @@
         <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -6490,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -6538,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -6586,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -6634,7 +6634,7 @@
         <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -6682,7 +6682,7 @@
         <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -6778,7 +6778,7 @@
         <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -6826,7 +6826,7 @@
         <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -6874,7 +6874,7 @@
         <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -6922,7 +6922,7 @@
         <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
@@ -6970,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -7018,7 +7018,7 @@
         <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -7114,7 +7114,7 @@
         <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="26" spans="1:32" customHeight="1">
@@ -7162,7 +7162,7 @@
         <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="27" spans="31:32" customHeight="1">
@@ -7170,7 +7170,7 @@
         <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" spans="31:32" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="31:32" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="30" spans="31:32" customHeight="1">
@@ -7194,7 +7194,7 @@
         <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="31" spans="31:32" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" spans="31:32" customHeight="1">
@@ -7210,7 +7210,7 @@
         <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="33" spans="31:32" customHeight="1">
@@ -7218,7 +7218,7 @@
         <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="34" spans="31:32" customHeight="1">
@@ -7226,7 +7226,7 @@
         <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="35" spans="31:32" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="36" spans="31:32" customHeight="1">
@@ -7242,7 +7242,7 @@
         <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="37" spans="31:32" customHeight="1">
@@ -7250,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="38" spans="31:32" customHeight="1">
@@ -7258,7 +7258,7 @@
         <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="39" spans="31:32" customHeight="1">
@@ -7266,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="40" spans="31:32" customHeight="1">
@@ -7274,7 +7274,7 @@
         <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41" spans="31:32" customHeight="1">
@@ -7282,7 +7282,7 @@
         <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="31:32" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="31:32" customHeight="1">
@@ -7298,7 +7298,7 @@
         <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="44" spans="31:32" customHeight="1">
@@ -7306,7 +7306,7 @@
         <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="45" spans="31:32" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -7322,7 +7322,7 @@
         <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="31:32" customHeight="1">
@@ -7330,7 +7330,7 @@
         <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -7338,7 +7338,7 @@
         <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="49" spans="31:32" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="50" spans="31:32" customHeight="1">
@@ -7354,7 +7354,7 @@
         <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -7362,7 +7362,7 @@
         <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -7370,7 +7370,7 @@
         <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -7378,7 +7378,7 @@
         <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="54" spans="31:32" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -7394,7 +7394,7 @@
         <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -7402,7 +7402,7 @@
         <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -7410,7 +7410,7 @@
         <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -7418,7 +7418,7 @@
         <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -7426,7 +7426,7 @@
         <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -7434,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -7442,7 +7442,7 @@
         <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -7466,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -7474,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -7482,7 +7482,7 @@
         <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -7490,7 +7490,7 @@
         <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -7498,7 +7498,7 @@
         <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="69" spans="31:32" customHeight="1">
@@ -7506,7 +7506,7 @@
         <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="70" spans="31:32" customHeight="1">
@@ -7514,7 +7514,7 @@
         <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -7522,7 +7522,7 @@
         <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -7538,7 +7538,7 @@
         <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -143,15 +143,15 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -1103,19 +1103,19 @@
     <t>X</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Brig</t>
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -3294,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -5954,7 +5954,7 @@
         <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -6000,7 +6000,7 @@
         <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -6050,7 +6050,7 @@
         <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -6094,7 +6094,7 @@
         <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -6148,7 +6148,7 @@
         <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -6159,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -6202,7 +6202,7 @@
         <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6250,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -6298,7 +6298,7 @@
         <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -6346,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -6394,7 +6394,7 @@
         <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -6442,7 +6442,7 @@
         <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -6490,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -6538,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -6549,7 +6549,7 @@
         <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
@@ -6586,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -6597,7 +6597,7 @@
         <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30">
         <f>COUNTA(F15:AD15)</f>
@@ -6634,7 +6634,7 @@
         <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -6645,7 +6645,7 @@
         <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6682,7 +6682,7 @@
         <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -6778,7 +6778,7 @@
         <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -6826,7 +6826,7 @@
         <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -6874,7 +6874,7 @@
         <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -6922,7 +6922,7 @@
         <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
@@ -6970,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -7018,7 +7018,7 @@
         <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -7114,7 +7114,7 @@
         <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:32" customHeight="1">
@@ -7162,7 +7162,7 @@
         <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="31:32" customHeight="1">
@@ -7170,7 +7170,7 @@
         <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="31:32" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="29" spans="31:32" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="31:32" customHeight="1">
@@ -7194,7 +7194,7 @@
         <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="31:32" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="31:32" customHeight="1">
@@ -7210,7 +7210,7 @@
         <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="31:32" customHeight="1">
@@ -7218,7 +7218,7 @@
         <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="31:32" customHeight="1">
@@ -7226,7 +7226,7 @@
         <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="31:32" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="31:32" customHeight="1">
@@ -7242,7 +7242,7 @@
         <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="31:32" customHeight="1">
@@ -7250,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="31:32" customHeight="1">
@@ -7258,7 +7258,7 @@
         <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="31:32" customHeight="1">
@@ -7266,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="31:32" customHeight="1">
@@ -7274,7 +7274,7 @@
         <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="31:32" customHeight="1">
@@ -7282,7 +7282,7 @@
         <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="31:32" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="31:32" customHeight="1">
@@ -7298,7 +7298,7 @@
         <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="31:32" customHeight="1">
@@ -7306,7 +7306,7 @@
         <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="31:32" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -7322,7 +7322,7 @@
         <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="47" spans="31:32" customHeight="1">
@@ -7330,7 +7330,7 @@
         <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -7338,7 +7338,7 @@
         <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="31:32" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="31:32" customHeight="1">
@@ -7354,7 +7354,7 @@
         <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -7362,7 +7362,7 @@
         <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -7370,7 +7370,7 @@
         <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -7378,7 +7378,7 @@
         <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="31:32" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -7394,7 +7394,7 @@
         <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -7402,7 +7402,7 @@
         <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -7410,7 +7410,7 @@
         <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -7418,7 +7418,7 @@
         <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -7426,7 +7426,7 @@
         <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -7434,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -7442,7 +7442,7 @@
         <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -7466,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -7474,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -7482,7 +7482,7 @@
         <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -7490,7 +7490,7 @@
         <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -7498,7 +7498,7 @@
         <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="31:32" customHeight="1">
@@ -7506,7 +7506,7 @@
         <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="31:32" customHeight="1">
@@ -7514,7 +7514,7 @@
         <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -7522,7 +7522,7 @@
         <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -7538,7 +7538,7 @@
         <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -89,24 +89,24 @@
     <t>Wasa</t>
   </si>
   <si>
+    <t>Agamemnon</t>
+  </si>
+  <si>
+    <t>Rättvisan</t>
+  </si>
+  <si>
     <t>Leopard</t>
   </si>
   <si>
-    <t>Agamemnon</t>
-  </si>
-  <si>
-    <t>Rättvisan</t>
+    <t>Indefatigable</t>
+  </si>
+  <si>
+    <t>Ingermanland</t>
   </si>
   <si>
     <t>Wapen von Hamburg</t>
   </si>
   <si>
-    <t>Indefatigable</t>
-  </si>
-  <si>
-    <t>Ingermanland</t>
-  </si>
-  <si>
     <t>Endymion</t>
   </si>
   <si>
@@ -143,15 +143,15 @@
     <t>Le Gros Ventre Refit</t>
   </si>
   <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>Le Gros Ventre</t>
+  </si>
+  <si>
     <t>Surprise</t>
   </si>
   <si>
-    <t>La Renommée</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre</t>
-  </si>
-  <si>
     <t>Hercules</t>
   </si>
   <si>
@@ -1103,19 +1103,19 @@
     <t>X</t>
   </si>
   <si>
+    <t>Prince de Neufchâtel</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
+    <t>Navy Brig</t>
+  </si>
+  <si>
+    <t>Rattlesnake</t>
+  </si>
+  <si>
     <t>Snow</t>
-  </si>
-  <si>
-    <t>Prince de Neufchâtel</t>
-  </si>
-  <si>
-    <t>Navy Brig</t>
-  </si>
-  <si>
-    <t>Rattlesnake</t>
   </si>
   <si>
     <t>Brig</t>
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -2131,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -2275,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -2419,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -2430,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="30" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D18" s="30">
         <f>COUNTA(F18:AD18)</f>
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -2526,7 +2526,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="30" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D20" s="30">
         <f>COUNTA(F20:AD20)</f>
@@ -2574,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="30" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D21" s="30">
         <f>COUNTA(F21:AD21)</f>
@@ -2622,7 +2622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="30" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D22" s="30">
         <f>COUNTA(F22:AD22)</f>
@@ -2659,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -2670,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="30" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D23" s="30">
         <f>COUNTA(F23:AD23)</f>
@@ -2707,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -2755,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -2899,7 +2899,7 @@
         <v>79</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:32" customHeight="1">
@@ -3043,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
@@ -3091,7 +3091,7 @@
         <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
@@ -3294,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D36" s="26">
         <f>COUNTA(F36:AD36)</f>
@@ -3331,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:32" customHeight="1">
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
@@ -3619,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
@@ -3715,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
@@ -3763,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -3779,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -3819,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -3835,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -3843,7 +3843,7 @@
         <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -3851,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -3859,7 +3859,7 @@
         <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -3867,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -3883,7 +3883,7 @@
         <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -3899,7 +3899,7 @@
         <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -3907,7 +3907,7 @@
         <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -3915,7 +3915,7 @@
         <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -3923,7 +3923,7 @@
         <v>117</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -3931,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -3971,7 +3971,7 @@
         <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -3987,7 +3987,7 @@
         <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="74" spans="31:32" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="31:32" customHeight="1">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="31:32" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="31:32" customHeight="1">
@@ -4019,7 +4019,7 @@
         <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="31:32" customHeight="1">
@@ -4027,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="31:32" customHeight="1">
@@ -4035,7 +4035,7 @@
         <v>131</v>
       </c>
       <c r="AF79" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="80" spans="31:32" customHeight="1">
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81" spans="31:32" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" spans="31:32" customHeight="1">
@@ -4067,7 +4067,7 @@
         <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="31:32" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="31:32" customHeight="1">
@@ -4091,7 +4091,7 @@
         <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="31:32" customHeight="1">
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="31:32" customHeight="1">
@@ -4107,7 +4107,7 @@
         <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="31:32" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="90" spans="31:32" customHeight="1">
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="91" spans="31:32" customHeight="1">
@@ -4131,7 +4131,7 @@
         <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="31:32" customHeight="1">
@@ -4147,7 +4147,7 @@
         <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="94" spans="31:32" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="95" spans="31:32" customHeight="1">
@@ -4163,7 +4163,7 @@
         <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="31:32" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="97" spans="31:32" customHeight="1">
@@ -4179,7 +4179,7 @@
         <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="31:32" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="31:32" customHeight="1">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="103" spans="31:32" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" spans="31:32" customHeight="1">
@@ -4235,7 +4235,7 @@
         <v>156</v>
       </c>
       <c r="AF104" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="105" spans="31:32" customHeight="1">
@@ -4243,7 +4243,7 @@
         <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="106" spans="31:32" customHeight="1">
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="31:32" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="109" spans="31:32" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="110" spans="31:32" customHeight="1">
@@ -4283,7 +4283,7 @@
         <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="111" spans="31:32" customHeight="1">
@@ -4291,7 +4291,7 @@
         <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="112" spans="31:32" customHeight="1">
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="113" spans="31:32" customHeight="1">
@@ -4307,7 +4307,7 @@
         <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="31:32" customHeight="1">
@@ -4315,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="115" spans="31:32" customHeight="1">
@@ -4323,7 +4323,7 @@
         <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="116" spans="31:32" customHeight="1">
@@ -4355,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="120" spans="31:32" customHeight="1">
@@ -4371,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="31:32" customHeight="1">
@@ -4395,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="125" spans="31:32" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="126" spans="31:32" customHeight="1">
@@ -4419,7 +4419,7 @@
         <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="128" spans="31:32" customHeight="1">
@@ -4427,7 +4427,7 @@
         <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="129" spans="31:32" customHeight="1">
@@ -4451,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="132" spans="31:32" customHeight="1">
@@ -4459,7 +4459,7 @@
         <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="133" spans="31:32" customHeight="1">
@@ -4475,7 +4475,7 @@
         <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="135" spans="31:32" customHeight="1">
@@ -4483,7 +4483,7 @@
         <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="136" spans="31:32" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="137" spans="31:32" customHeight="1">
@@ -4499,7 +4499,7 @@
         <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="138" spans="31:32" customHeight="1">
@@ -4507,7 +4507,7 @@
         <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="139" spans="31:32" customHeight="1">
@@ -4515,7 +4515,7 @@
         <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="140" spans="31:32" customHeight="1">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="142" spans="31:32" customHeight="1">
@@ -4539,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="143" spans="31:32" customHeight="1">
@@ -4547,7 +4547,7 @@
         <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="31:32" customHeight="1">
@@ -4555,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="145" spans="31:32" customHeight="1">
@@ -4579,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="148" spans="31:32" customHeight="1">
@@ -4587,7 +4587,7 @@
         <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="149" spans="31:32" customHeight="1">
@@ -4595,7 +4595,7 @@
         <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="150" spans="31:32" customHeight="1">
@@ -4603,7 +4603,7 @@
         <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="151" spans="31:32" customHeight="1">
@@ -4627,7 +4627,7 @@
         <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="154" spans="31:32" customHeight="1">
@@ -4635,7 +4635,7 @@
         <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="155" spans="31:32" customHeight="1">
@@ -4643,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="156" spans="31:32" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="158" spans="31:32" customHeight="1">
@@ -4675,7 +4675,7 @@
         <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="160" spans="31:32" customHeight="1">
@@ -4691,7 +4691,7 @@
         <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="162" spans="31:32" customHeight="1">
@@ -4699,7 +4699,7 @@
         <v>214</v>
       </c>
       <c r="AF162" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="163" spans="31:32" customHeight="1">
@@ -4707,7 +4707,7 @@
         <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="164" spans="31:32" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="165" spans="31:32" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="166" spans="31:32" customHeight="1">
@@ -4747,7 +4747,7 @@
         <v>220</v>
       </c>
       <c r="AF168" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="169" spans="31:32" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="170" spans="31:32" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="171" spans="31:32" customHeight="1">
@@ -4771,7 +4771,7 @@
         <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="172" spans="31:32" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="173" spans="31:32" customHeight="1">
@@ -4787,7 +4787,7 @@
         <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="174" spans="31:32" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="175" spans="31:32" customHeight="1">
@@ -4803,7 +4803,7 @@
         <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="176" spans="31:32" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="177" spans="31:32" customHeight="1">
@@ -4819,7 +4819,7 @@
         <v>229</v>
       </c>
       <c r="AF177" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="178" spans="31:32" customHeight="1">
@@ -4827,7 +4827,7 @@
         <v>230</v>
       </c>
       <c r="AF178" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="179" spans="31:32" customHeight="1">
@@ -4843,7 +4843,7 @@
         <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="181" spans="31:32" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="182" spans="31:32" customHeight="1">
@@ -4859,7 +4859,7 @@
         <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="183" spans="31:32" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="185" spans="31:32" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="186" spans="31:32" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="187" spans="31:32" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="188" spans="31:32" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="189" spans="31:32" customHeight="1">
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="190" spans="31:32" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="192" spans="31:32" customHeight="1">
@@ -4939,7 +4939,7 @@
         <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="31:32" customHeight="1">
@@ -4947,7 +4947,7 @@
         <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="194" spans="31:32" customHeight="1">
@@ -4955,7 +4955,7 @@
         <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="195" spans="31:32" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="196" spans="31:32" customHeight="1">
@@ -4971,7 +4971,7 @@
         <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="197" spans="31:32" customHeight="1">
@@ -4979,7 +4979,7 @@
         <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="198" spans="31:32" customHeight="1">
@@ -4987,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="199" spans="31:32" customHeight="1">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="205" spans="31:32" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="207" spans="31:32" customHeight="1">
@@ -5067,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="209" spans="31:32" customHeight="1">
@@ -5083,7 +5083,7 @@
         <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="211" spans="31:32" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="214" spans="31:32" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="215" spans="31:32" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="217" spans="31:32" customHeight="1">
@@ -5147,7 +5147,7 @@
         <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="219" spans="31:32" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="221" spans="31:32" customHeight="1">
@@ -5171,7 +5171,7 @@
         <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="222" spans="31:32" customHeight="1">
@@ -5187,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="224" spans="31:32" customHeight="1">
@@ -5195,7 +5195,7 @@
         <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="225" spans="31:32" customHeight="1">
@@ -5203,7 +5203,7 @@
         <v>277</v>
       </c>
       <c r="AF225" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="226" spans="31:32" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="227" spans="31:32" customHeight="1">
@@ -5219,7 +5219,7 @@
         <v>279</v>
       </c>
       <c r="AF227" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="228" spans="31:32" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="232" spans="31:32" customHeight="1">
@@ -5259,7 +5259,7 @@
         <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="31:32" customHeight="1">
@@ -5267,7 +5267,7 @@
         <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="234" spans="31:32" customHeight="1">
@@ -5283,7 +5283,7 @@
         <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="236" spans="31:32" customHeight="1">
@@ -5307,7 +5307,7 @@
         <v>290</v>
       </c>
       <c r="AF238" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="239" spans="31:32" customHeight="1">
@@ -5323,7 +5323,7 @@
         <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="241" spans="31:32" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="242" spans="31:32" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="245" spans="31:32" customHeight="1">
@@ -5363,7 +5363,7 @@
         <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="246" spans="31:32" customHeight="1">
@@ -5371,7 +5371,7 @@
         <v>298</v>
       </c>
       <c r="AF246" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="247" spans="31:32" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="249" spans="31:32" customHeight="1">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="250" spans="31:32" customHeight="1">
@@ -5403,7 +5403,7 @@
         <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="251" spans="31:32" customHeight="1">
@@ -5411,7 +5411,7 @@
         <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="252" spans="31:32" customHeight="1">
@@ -5419,7 +5419,7 @@
         <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="253" spans="31:32" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="255" spans="31:32" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="256" spans="31:32" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="257" spans="31:32" customHeight="1">
@@ -5459,7 +5459,7 @@
         <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="258" spans="31:32" customHeight="1">
@@ -5475,7 +5475,7 @@
         <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="260" spans="31:32" customHeight="1">
@@ -5483,7 +5483,7 @@
         <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="261" spans="31:32" customHeight="1">
@@ -5491,7 +5491,7 @@
         <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="262" spans="31:32" customHeight="1">
@@ -5499,7 +5499,7 @@
         <v>314</v>
       </c>
       <c r="AF262" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="263" spans="31:32" customHeight="1">
@@ -5507,7 +5507,7 @@
         <v>315</v>
       </c>
       <c r="AF263" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="264" spans="31:32" customHeight="1">
@@ -5531,7 +5531,7 @@
         <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="267" spans="31:32" customHeight="1">
@@ -5547,7 +5547,7 @@
         <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269" spans="31:32" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="270" spans="31:32" customHeight="1">
@@ -5571,7 +5571,7 @@
         <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="272" spans="31:32" customHeight="1">
@@ -5587,7 +5587,7 @@
         <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="274" spans="31:32" customHeight="1">
@@ -5595,7 +5595,7 @@
         <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="275" spans="31:32" customHeight="1">
@@ -5603,7 +5603,7 @@
         <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="276" spans="31:32" customHeight="1">
@@ -5619,7 +5619,7 @@
         <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="278" spans="31:32" customHeight="1">
@@ -5627,7 +5627,7 @@
         <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="279" spans="31:32" customHeight="1">
@@ -5635,7 +5635,7 @@
         <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="280" spans="31:32" customHeight="1">
@@ -5643,7 +5643,7 @@
         <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="281" spans="31:32" customHeight="1">
@@ -5659,7 +5659,7 @@
         <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="283" spans="31:32" customHeight="1">
@@ -5667,7 +5667,7 @@
         <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="284" spans="31:32" customHeight="1">
@@ -5675,7 +5675,7 @@
         <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="285" spans="31:32" customHeight="1">
@@ -5691,7 +5691,7 @@
         <v>338</v>
       </c>
       <c r="AF286" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="287" spans="31:32" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="288" spans="31:32" customHeight="1">
@@ -5723,7 +5723,7 @@
         <v>342</v>
       </c>
       <c r="AF290" s="0" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="291" spans="31:32" customHeight="1">
@@ -5731,7 +5731,7 @@
         <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="292" spans="31:32" customHeight="1">
@@ -5739,7 +5739,7 @@
         <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="293" spans="31:32" customHeight="1">
@@ -5747,7 +5747,7 @@
         <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="294" spans="31:32" customHeight="1">
@@ -5763,7 +5763,7 @@
         <v>347</v>
       </c>
       <c r="AF295" s="0" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="296" spans="31:32" customHeight="1">
@@ -5771,7 +5771,7 @@
         <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="297" spans="31:32" customHeight="1">
@@ -5779,7 +5779,7 @@
         <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="298" spans="31:32" customHeight="1">
@@ -5787,7 +5787,7 @@
         <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="299" spans="31:32" customHeight="1">
@@ -5803,7 +5803,7 @@
         <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="301" spans="31:32" customHeight="1">
@@ -5827,7 +5827,7 @@
         <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="304" spans="31:32" customHeight="1">
@@ -5835,7 +5835,7 @@
         <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="305" spans="31:32" customHeight="1">
@@ -5954,7 +5954,7 @@
         <v>376</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -6000,7 +6000,7 @@
         <v>377</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -6050,7 +6050,7 @@
         <v>378</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -6094,7 +6094,7 @@
         <v>379</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -6148,7 +6148,7 @@
         <v>380</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -6159,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" s="26">
         <f>COUNTA(F6:AD6)</f>
@@ -6202,7 +6202,7 @@
         <v>381</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="26" t="n">
         <v>120</v>
@@ -6250,7 +6250,7 @@
         <v>382</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -6298,7 +6298,7 @@
         <v>383</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -6346,7 +6346,7 @@
         <v>384</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -6394,7 +6394,7 @@
         <v>385</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -6442,7 +6442,7 @@
         <v>386</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -6490,7 +6490,7 @@
         <v>387</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -6538,7 +6538,7 @@
         <v>388</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -6549,7 +6549,7 @@
         <v>363</v>
       </c>
       <c r="C14" s="30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="30">
         <f>COUNTA(F14:AD14)</f>
@@ -6586,7 +6586,7 @@
         <v>389</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -6597,7 +6597,7 @@
         <v>364</v>
       </c>
       <c r="C15" s="30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30">
         <f>COUNTA(F15:AD15)</f>
@@ -6634,7 +6634,7 @@
         <v>390</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -6645,7 +6645,7 @@
         <v>365</v>
       </c>
       <c r="C16" s="30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="30">
         <f>COUNTA(F16:AD16)</f>
@@ -6682,7 +6682,7 @@
         <v>391</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -6730,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -6778,7 +6778,7 @@
         <v>393</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -6826,7 +6826,7 @@
         <v>394</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -6874,7 +6874,7 @@
         <v>395</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -6922,7 +6922,7 @@
         <v>396</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1">
@@ -6970,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -7018,7 +7018,7 @@
         <v>398</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -7066,7 +7066,7 @@
         <v>399</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -7114,7 +7114,7 @@
         <v>400</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:32" customHeight="1">
@@ -7162,7 +7162,7 @@
         <v>401</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="31:32" customHeight="1">
@@ -7170,7 +7170,7 @@
         <v>402</v>
       </c>
       <c r="AF27" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="31:32" customHeight="1">
@@ -7178,7 +7178,7 @@
         <v>403</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="29" spans="31:32" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>404</v>
       </c>
       <c r="AF29" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="31:32" customHeight="1">
@@ -7194,7 +7194,7 @@
         <v>405</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="31:32" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>406</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="31:32" customHeight="1">
@@ -7210,7 +7210,7 @@
         <v>407</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="31:32" customHeight="1">
@@ -7218,7 +7218,7 @@
         <v>408</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="31:32" customHeight="1">
@@ -7226,7 +7226,7 @@
         <v>409</v>
       </c>
       <c r="AF34" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="31:32" customHeight="1">
@@ -7234,7 +7234,7 @@
         <v>410</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="31:32" customHeight="1">
@@ -7242,7 +7242,7 @@
         <v>411</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="31:32" customHeight="1">
@@ -7250,7 +7250,7 @@
         <v>412</v>
       </c>
       <c r="AF37" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="31:32" customHeight="1">
@@ -7258,7 +7258,7 @@
         <v>413</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="31:32" customHeight="1">
@@ -7266,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="31:32" customHeight="1">
@@ -7274,7 +7274,7 @@
         <v>415</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="31:32" customHeight="1">
@@ -7282,7 +7282,7 @@
         <v>416</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="31:32" customHeight="1">
@@ -7290,7 +7290,7 @@
         <v>417</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="31:32" customHeight="1">
@@ -7298,7 +7298,7 @@
         <v>418</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="31:32" customHeight="1">
@@ -7306,7 +7306,7 @@
         <v>419</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="31:32" customHeight="1">
@@ -7314,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -7322,7 +7322,7 @@
         <v>421</v>
       </c>
       <c r="AF46" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="47" spans="31:32" customHeight="1">
@@ -7330,7 +7330,7 @@
         <v>422</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -7338,7 +7338,7 @@
         <v>423</v>
       </c>
       <c r="AF48" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="31:32" customHeight="1">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="AF49" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="31:32" customHeight="1">
@@ -7354,7 +7354,7 @@
         <v>425</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -7362,7 +7362,7 @@
         <v>426</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -7370,7 +7370,7 @@
         <v>427</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -7378,7 +7378,7 @@
         <v>428</v>
       </c>
       <c r="AF53" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="31:32" customHeight="1">
@@ -7386,7 +7386,7 @@
         <v>429</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -7394,7 +7394,7 @@
         <v>430</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -7402,7 +7402,7 @@
         <v>431</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -7410,7 +7410,7 @@
         <v>432</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -7418,7 +7418,7 @@
         <v>433</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -7426,7 +7426,7 @@
         <v>434</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -7434,7 +7434,7 @@
         <v>435</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -7442,7 +7442,7 @@
         <v>436</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>437</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -7458,7 +7458,7 @@
         <v>438</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -7466,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -7474,7 +7474,7 @@
         <v>440</v>
       </c>
       <c r="AF65" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="31:32" customHeight="1">
@@ -7482,7 +7482,7 @@
         <v>441</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -7490,7 +7490,7 @@
         <v>442</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -7498,7 +7498,7 @@
         <v>443</v>
       </c>
       <c r="AF68" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="31:32" customHeight="1">
@@ -7506,7 +7506,7 @@
         <v>444</v>
       </c>
       <c r="AF69" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="31:32" customHeight="1">
@@ -7514,7 +7514,7 @@
         <v>445</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -7522,7 +7522,7 @@
         <v>446</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -7530,7 +7530,7 @@
         <v>447</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -7538,7 +7538,7 @@
         <v>448</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/port-battle.xlsx
+++ b/src/data/port-battle.xlsx
@@ -137,10 +137,10 @@
     <t>Hulk Indiaman</t>
   </si>
   <si>
+    <t>Le Gros Ventre Refit</t>
+  </si>
+  <si>
     <t>Indiaman</t>
-  </si>
-  <si>
-    <t>Le Gros Ventre Refit</t>
   </si>
   <si>
     <t>La Renommée</t>
@@ -1643,7 +1643,7 @@
         <v>53</v>
       </c>
       <c r="AF1" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="2" spans="1:32" customHeight="1">
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="3" spans="1:32" customHeight="1">
@@ -1739,7 +1739,7 @@
         <v>55</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="4" spans="1:32" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>57</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1">
@@ -1891,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1">
@@ -1939,7 +1939,7 @@
         <v>59</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1">
@@ -1987,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1">
@@ -2046,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="30" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D10" s="30">
         <f>COUNTA(F10:AD10)</f>
@@ -2083,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1">
@@ -2131,7 +2131,7 @@
         <v>63</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="12" spans="1:32" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
       <c r="AF12" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="13" spans="1:32" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="14" spans="1:32" customHeight="1">
@@ -2275,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="15" spans="1:32" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="16" spans="1:32" customHeight="1">
@@ -2371,7 +2371,7 @@
         <v>68</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="17" spans="1:32" customHeight="1">
@@ -2419,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="18" spans="1:32" customHeight="1">
@@ -2467,7 +2467,7 @@
         <v>70</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1">
@@ -2563,7 +2563,7 @@
         <v>72</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1">
@@ -2707,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="24" spans="1:32" customHeight="1">
@@ -2718,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="26" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D24" s="26">
         <f>COUNTA(F24:AD24)</f>
@@ -2755,7 +2755,7 @@
         <v>76</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="25" spans="1:32" customHeight="1">
@@ -2766,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="26" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D25" s="26">
         <f>COUNTA(F25:AD25)</f>
@@ -2851,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="AF26" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="27" spans="1:32" customHeight="1">
@@ -2947,7 +2947,7 @@
         <v>80</v>
       </c>
       <c r="AF28" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="29" spans="1:32" customHeight="1">
@@ -3043,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="AF30" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="31" spans="1:32" customHeight="1">
@@ -3091,7 +3091,7 @@
         <v>83</v>
       </c>
       <c r="AF31" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="32" spans="1:32" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>84</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="33" spans="1:32" customHeight="1">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="AF33" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="34" spans="1:32" customHeight="1">
@@ -3246,7 +3246,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D35" s="26">
         <f>COUNTA(F35:AD35)</f>
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="AF35" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="36" spans="1:32" customHeight="1">
@@ -3331,7 +3331,7 @@
         <v>88</v>
       </c>
       <c r="AF36" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="37" spans="1:32" customHeight="1">
@@ -3427,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="AF38" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="39" spans="1:32" customHeight="1">
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="AF39" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="40" spans="1:32" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="AF40" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="41" spans="1:32" customHeight="1">
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="AF41" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="42" spans="1:32" customHeight="1">
@@ -3619,7 +3619,7 @@
         <v>94</v>
       </c>
       <c r="AF42" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="43" spans="1:32" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>95</v>
       </c>
       <c r="AF43" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="44" spans="1:32" customHeight="1">
@@ -3715,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="AF44" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="45" spans="1:32" customHeight="1">
@@ -3763,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="AF45" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="46" spans="31:32" customHeight="1">
@@ -3779,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AF47" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="48" spans="31:32" customHeight="1">
@@ -3803,7 +3803,7 @@
         <v>102</v>
       </c>
       <c r="AF50" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="51" spans="31:32" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>103</v>
       </c>
       <c r="AF51" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="52" spans="31:32" customHeight="1">
@@ -3819,7 +3819,7 @@
         <v>104</v>
       </c>
       <c r="AF52" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="53" spans="31:32" customHeight="1">
@@ -3835,7 +3835,7 @@
         <v>106</v>
       </c>
       <c r="AF54" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="55" spans="31:32" customHeight="1">
@@ -3843,7 +3843,7 @@
         <v>107</v>
       </c>
       <c r="AF55" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="56" spans="31:32" customHeight="1">
@@ -3851,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="AF56" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="57" spans="31:32" customHeight="1">
@@ -3859,7 +3859,7 @@
         <v>109</v>
       </c>
       <c r="AF57" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="58" spans="31:32" customHeight="1">
@@ -3867,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="AF58" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="59" spans="31:32" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="AF59" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="60" spans="31:32" customHeight="1">
@@ -3883,7 +3883,7 @@
         <v>112</v>
       </c>
       <c r="AF60" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="61" spans="31:32" customHeight="1">
@@ -3891,7 +3891,7 @@
         <v>113</v>
       </c>
       <c r="AF61" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="62" spans="31:32" customHeight="1">
@@ -3899,7 +3899,7 @@
         <v>114</v>
       </c>
       <c r="AF62" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="63" spans="31:32" customHeight="1">
@@ -3907,7 +3907,7 @@
         <v>115</v>
       </c>
       <c r="AF63" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="64" spans="31:32" customHeight="1">
@@ -3915,7 +3915,7 @@
         <v>116</v>
       </c>
       <c r="AF64" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="65" spans="31:32" customHeight="1">
@@ -3931,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="AF66" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="67" spans="31:32" customHeight="1">
@@ -3939,7 +3939,7 @@
         <v>119</v>
       </c>
       <c r="AF67" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="68" spans="31:32" customHeight="1">
@@ -3963,7 +3963,7 @@
         <v>122</v>
       </c>
       <c r="AF70" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="71" spans="31:32" customHeight="1">
@@ -3971,7 +3971,7 @@
         <v>123</v>
       </c>
       <c r="AF71" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="72" spans="31:32" customHeight="1">
@@ -3979,7 +3979,7 @@
         <v>124</v>
       </c>
       <c r="AF72" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="73" spans="31:32" customHeight="1">
@@ -3987,7 +3987,7 @@
         <v>125</v>
       </c>
       <c r="AF73" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="74" spans="31:32" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>126</v>
       </c>
       <c r="AF74" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="75" spans="31:32" customHeight="1">
@@ -4003,7 +4003,7 @@
         <v>127</v>
       </c>
       <c r="AF75" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="76" spans="31:32" customHeight="1">
@@ -4011,7 +4011,7 @@
         <v>128</v>
       </c>
       <c r="AF76" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="77" spans="31:32" customHeight="1">
@@ -4019,7 +4019,7 @@
         <v>129</v>
       </c>
       <c r="AF77" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="78" spans="31:32" customHeight="1">
@@ -4027,7 +4027,7 @@
         <v>130</v>
       </c>
       <c r="AF78" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="79" spans="31:32" customHeight="1">
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
       <c r="AF80" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="81" spans="31:32" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>133</v>
       </c>
       <c r="AF81" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="82" spans="31:32" customHeight="1">
@@ -4067,7 +4067,7 @@
         <v>135</v>
       </c>
       <c r="AF83" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="84" spans="31:32" customHeight="1">
@@ -4075,7 +4075,7 @@
         <v>136</v>
       </c>
       <c r="AF84" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="85" spans="31:32" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>137</v>
       </c>
       <c r="AF85" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="86" spans="31:32" customHeight="1">
@@ -4091,7 +4091,7 @@
         <v>138</v>
       </c>
       <c r="AF86" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="87" spans="31:32" customHeight="1">
@@ -4099,7 +4099,7 @@
         <v>139</v>
       </c>
       <c r="AF87" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="88" spans="31:32" customHeight="1">
@@ -4107,7 +4107,7 @@
         <v>140</v>
       </c>
       <c r="AF88" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="89" spans="31:32" customHeight="1">
@@ -4115,7 +4115,7 @@
         <v>141</v>
       </c>
       <c r="AF89" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="90" spans="31:32" customHeight="1">
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="AF90" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="91" spans="31:32" customHeight="1">
@@ -4131,7 +4131,7 @@
         <v>143</v>
       </c>
       <c r="AF91" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="92" spans="31:32" customHeight="1">
@@ -4139,7 +4139,7 @@
         <v>144</v>
       </c>
       <c r="AF92" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="93" spans="31:32" customHeight="1">
@@ -4147,7 +4147,7 @@
         <v>145</v>
       </c>
       <c r="AF93" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="94" spans="31:32" customHeight="1">
@@ -4155,7 +4155,7 @@
         <v>146</v>
       </c>
       <c r="AF94" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="95" spans="31:32" customHeight="1">
@@ -4163,7 +4163,7 @@
         <v>147</v>
       </c>
       <c r="AF95" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="96" spans="31:32" customHeight="1">
@@ -4171,7 +4171,7 @@
         <v>148</v>
       </c>
       <c r="AF96" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="97" spans="31:32" customHeight="1">
@@ -4179,7 +4179,7 @@
         <v>149</v>
       </c>
       <c r="AF97" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="98" spans="31:32" customHeight="1">
@@ -4187,7 +4187,7 @@
         <v>150</v>
       </c>
       <c r="AF98" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="99" spans="31:32" customHeight="1">
@@ -4203,7 +4203,7 @@
         <v>152</v>
       </c>
       <c r="AF100" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="101" spans="31:32" customHeight="1">
@@ -4211,7 +4211,7 @@
         <v>153</v>
       </c>
       <c r="AF101" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="102" spans="31:32" customHeight="1">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="AF102" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="103" spans="31:32" customHeight="1">
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
       <c r="AF103" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="104" spans="31:32" customHeight="1">
@@ -4243,7 +4243,7 @@
         <v>157</v>
       </c>
       <c r="AF105" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="106" spans="31:32" customHeight="1">
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="AF106" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="107" spans="31:32" customHeight="1">
@@ -4259,7 +4259,7 @@
         <v>159</v>
       </c>
       <c r="AF107" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="108" spans="31:32" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>160</v>
       </c>
       <c r="AF108" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="109" spans="31:32" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>161</v>
       </c>
       <c r="AF109" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="110" spans="31:32" customHeight="1">
@@ -4283,7 +4283,7 @@
         <v>162</v>
       </c>
       <c r="AF110" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="111" spans="31:32" customHeight="1">
@@ -4291,7 +4291,7 @@
         <v>163</v>
       </c>
       <c r="AF111" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="112" spans="31:32" customHeight="1">
@@ -4299,7 +4299,7 @@
         <v>164</v>
       </c>
       <c r="AF112" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="113" spans="31:32" customHeight="1">
@@ -4307,7 +4307,7 @@
         <v>165</v>
       </c>
       <c r="AF113" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="114" spans="31:32" customHeight="1">
@@ -4315,7 +4315,7 @@
         <v>166</v>
       </c>
       <c r="AF114" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="115" spans="31:32" customHeight="1">
@@ -4323,7 +4323,7 @@
         <v>167</v>
       </c>
       <c r="AF115" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="116" spans="31:32" customHeight="1">
@@ -4339,7 +4339,7 @@
         <v>169</v>
       </c>
       <c r="AF117" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="118" spans="31:32" customHeight="1">
@@ -4347,7 +4347,7 @@
         <v>170</v>
       </c>
       <c r="AF118" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="119" spans="31:32" customHeight="1">
@@ -4355,7 +4355,7 @@
         <v>171</v>
       </c>
       <c r="AF119" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="120" spans="31:32" customHeight="1">
@@ -4363,7 +4363,7 @@
         <v>172</v>
       </c>
       <c r="AF120" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="121" spans="31:32" customHeight="1">
@@ -4371,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="AF121" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="122" spans="31:32" customHeight="1">
@@ -4379,7 +4379,7 @@
         <v>174</v>
       </c>
       <c r="AF122" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="123" spans="31:32" customHeight="1">
@@ -4387,7 +4387,7 @@
         <v>175</v>
       </c>
       <c r="AF123" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="124" spans="31:32" customHeight="1">
@@ -4395,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="AF124" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="125" spans="31:32" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>177</v>
       </c>
       <c r="AF125" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="126" spans="31:32" customHeight="1">
@@ -4411,7 +4411,7 @@
         <v>178</v>
       </c>
       <c r="AF126" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="127" spans="31:32" customHeight="1">
@@ -4419,7 +4419,7 @@
         <v>179</v>
       </c>
       <c r="AF127" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="128" spans="31:32" customHeight="1">
@@ -4427,7 +4427,7 @@
         <v>180</v>
       </c>
       <c r="AF128" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="129" spans="31:32" customHeight="1">
@@ -4443,7 +4443,7 @@
         <v>182</v>
       </c>
       <c r="AF130" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="131" spans="31:32" customHeight="1">
@@ -4451,7 +4451,7 @@
         <v>183</v>
       </c>
       <c r="AF131" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="132" spans="31:32" customHeight="1">
@@ -4459,7 +4459,7 @@
         <v>184</v>
       </c>
       <c r="AF132" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="133" spans="31:32" customHeight="1">
@@ -4475,7 +4475,7 @@
         <v>186</v>
       </c>
       <c r="AF134" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="135" spans="31:32" customHeight="1">
@@ -4483,7 +4483,7 @@
         <v>187</v>
       </c>
       <c r="AF135" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="136" spans="31:32" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>188</v>
       </c>
       <c r="AF136" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="137" spans="31:32" customHeight="1">
@@ -4499,7 +4499,7 @@
         <v>189</v>
       </c>
       <c r="AF137" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="138" spans="31:32" customHeight="1">
@@ -4507,7 +4507,7 @@
         <v>190</v>
       </c>
       <c r="AF138" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="139" spans="31:32" customHeight="1">
@@ -4515,7 +4515,7 @@
         <v>191</v>
       </c>
       <c r="AF139" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="140" spans="31:32" customHeight="1">
@@ -4523,7 +4523,7 @@
         <v>192</v>
       </c>
       <c r="AF140" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="141" spans="31:32" customHeight="1">
@@ -4531,7 +4531,7 @@
         <v>193</v>
       </c>
       <c r="AF141" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="142" spans="31:32" customHeight="1">
@@ -4539,7 +4539,7 @@
         <v>194</v>
       </c>
       <c r="AF142" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="143" spans="31:32" customHeight="1">
@@ -4547,7 +4547,7 @@
         <v>195</v>
       </c>
       <c r="AF143" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="144" spans="31:32" customHeight="1">
@@ -4555,7 +4555,7 @@
         <v>196</v>
       </c>
       <c r="AF144" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="145" spans="31:32" customHeight="1">
@@ -4571,7 +4571,7 @@
         <v>198</v>
       </c>
       <c r="AF146" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="147" spans="31:32" customHeight="1">
@@ -4579,7 +4579,7 @@
         <v>199</v>
       </c>
       <c r="AF147" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="148" spans="31:32" customHeight="1">
@@ -4587,7 +4587,7 @@
         <v>200</v>
       </c>
       <c r="AF148" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="149" spans="31:32" customHeight="1">
@@ -4595,7 +4595,7 @@
         <v>201</v>
       </c>
       <c r="AF149" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="150" spans="31:32" customHeight="1">
@@ -4603,7 +4603,7 @@
         <v>202</v>
       </c>
       <c r="AF150" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="151" spans="31:32" customHeight="1">
@@ -4611,7 +4611,7 @@
         <v>203</v>
       </c>
       <c r="AF151" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="152" spans="31:32" customHeight="1">
@@ -4619,7 +4619,7 @@
         <v>204</v>
       </c>
       <c r="AF152" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="153" spans="31:32" customHeight="1">
@@ -4627,7 +4627,7 @@
         <v>205</v>
       </c>
       <c r="AF153" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="154" spans="31:32" customHeight="1">
@@ -4635,7 +4635,7 @@
         <v>206</v>
       </c>
       <c r="AF154" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="155" spans="31:32" customHeight="1">
@@ -4643,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="AF155" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="156" spans="31:32" customHeight="1">
@@ -4651,7 +4651,7 @@
         <v>208</v>
       </c>
       <c r="AF156" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="157" spans="31:32" customHeight="1">
@@ -4659,7 +4659,7 @@
         <v>209</v>
       </c>
       <c r="AF157" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="158" spans="31:32" customHeight="1">
@@ -4675,7 +4675,7 @@
         <v>211</v>
       </c>
       <c r="AF159" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="160" spans="31:32" customHeight="1">
@@ -4683,7 +4683,7 @@
         <v>212</v>
       </c>
       <c r="AF160" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="161" spans="31:32" customHeight="1">
@@ -4691,7 +4691,7 @@
         <v>213</v>
       </c>
       <c r="AF161" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="162" spans="31:32" customHeight="1">
@@ -4707,7 +4707,7 @@
         <v>215</v>
       </c>
       <c r="AF163" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="164" spans="31:32" customHeight="1">
@@ -4715,7 +4715,7 @@
         <v>216</v>
       </c>
       <c r="AF164" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="165" spans="31:32" customHeight="1">
@@ -4723,7 +4723,7 @@
         <v>217</v>
       </c>
       <c r="AF165" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="166" spans="31:32" customHeight="1">
@@ -4731,7 +4731,7 @@
         <v>218</v>
       </c>
       <c r="AF166" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="167" spans="31:32" customHeight="1">
@@ -4739,7 +4739,7 @@
         <v>219</v>
       </c>
       <c r="AF167" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="168" spans="31:32" customHeight="1">
@@ -4755,7 +4755,7 @@
         <v>221</v>
       </c>
       <c r="AF169" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="170" spans="31:32" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="AF170" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="171" spans="31:32" customHeight="1">
@@ -4771,7 +4771,7 @@
         <v>223</v>
       </c>
       <c r="AF171" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="172" spans="31:32" customHeight="1">
@@ -4779,7 +4779,7 @@
         <v>224</v>
       </c>
       <c r="AF172" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="173" spans="31:32" customHeight="1">
@@ -4787,7 +4787,7 @@
         <v>225</v>
       </c>
       <c r="AF173" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="174" spans="31:32" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>226</v>
       </c>
       <c r="AF174" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="175" spans="31:32" customHeight="1">
@@ -4803,7 +4803,7 @@
         <v>227</v>
       </c>
       <c r="AF175" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="176" spans="31:32" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>228</v>
       </c>
       <c r="AF176" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="177" spans="31:32" customHeight="1">
@@ -4843,7 +4843,7 @@
         <v>232</v>
       </c>
       <c r="AF180" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="181" spans="31:32" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>233</v>
       </c>
       <c r="AF181" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="182" spans="31:32" customHeight="1">
@@ -4859,7 +4859,7 @@
         <v>234</v>
       </c>
       <c r="AF182" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="183" spans="31:32" customHeight="1">
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="AF184" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="185" spans="31:32" customHeight="1">
@@ -4883,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="AF185" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="186" spans="31:32" customHeight="1">
@@ -4891,7 +4891,7 @@
         <v>238</v>
       </c>
       <c r="AF186" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="187" spans="31:32" customHeight="1">
@@ -4899,7 +4899,7 @@
         <v>239</v>
       </c>
       <c r="AF187" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="188" spans="31:32" customHeight="1">
@@ -4907,7 +4907,7 @@
         <v>240</v>
       </c>
       <c r="AF188" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="189" spans="31:32" customHeight="1">
@@ -4915,7 +4915,7 @@
         <v>241</v>
       </c>
       <c r="AF189" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="190" spans="31:32" customHeight="1">
@@ -4923,7 +4923,7 @@
         <v>242</v>
       </c>
       <c r="AF190" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="191" spans="31:32" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>243</v>
       </c>
       <c r="AF191" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="192" spans="31:32" customHeight="1">
@@ -4939,7 +4939,7 @@
         <v>244</v>
       </c>
       <c r="AF192" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="193" spans="31:32" customHeight="1">
@@ -4947,7 +4947,7 @@
         <v>245</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="194" spans="31:32" customHeight="1">
@@ -4955,7 +4955,7 @@
         <v>246</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="195" spans="31:32" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>247</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="196" spans="31:32" customHeight="1">
@@ -4971,7 +4971,7 @@
         <v>248</v>
       </c>
       <c r="AF196" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="197" spans="31:32" customHeight="1">
@@ -4979,7 +4979,7 @@
         <v>249</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="198" spans="31:32" customHeight="1">
@@ -4987,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="199" spans="31:32" customHeight="1">
@@ -4995,7 +4995,7 @@
         <v>251</v>
       </c>
       <c r="AF199" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="200" spans="31:32" customHeight="1">
@@ -5003,7 +5003,7 @@
         <v>252</v>
       </c>
       <c r="AF200" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="201" spans="31:32" customHeight="1">
@@ -5011,7 +5011,7 @@
         <v>253</v>
       </c>
       <c r="AF201" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="202" spans="31:32" customHeight="1">
@@ -5027,7 +5027,7 @@
         <v>255</v>
       </c>
       <c r="AF203" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="204" spans="31:32" customHeight="1">
@@ -5035,7 +5035,7 @@
         <v>256</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="205" spans="31:32" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>258</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="207" spans="31:32" customHeight="1">
@@ -5059,7 +5059,7 @@
         <v>259</v>
       </c>
       <c r="AF207" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="208" spans="31:32" customHeight="1">
@@ -5067,7 +5067,7 @@
         <v>260</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="209" spans="31:32" customHeight="1">
@@ -5083,7 +5083,7 @@
         <v>262</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="211" spans="31:32" customHeight="1">
@@ -5099,7 +5099,7 @@
         <v>264</v>
       </c>
       <c r="AF212" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="213" spans="31:32" customHeight="1">
@@ -5107,7 +5107,7 @@
         <v>265</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="214" spans="31:32" customHeight="1">
@@ -5115,7 +5115,7 @@
         <v>266</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="215" spans="31:32" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>268</v>
       </c>
       <c r="AF216" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="217" spans="31:32" customHeight="1">
@@ -5139,7 +5139,7 @@
         <v>269</v>
       </c>
       <c r="AF217" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="218" spans="31:32" customHeight="1">
@@ -5147,7 +5147,7 @@
         <v>270</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="219" spans="31:32" customHeight="1">
@@ -5155,7 +5155,7 @@
         <v>271</v>
       </c>
       <c r="AF219" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="220" spans="31:32" customHeight="1">
@@ -5163,7 +5163,7 @@
         <v>272</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="221" spans="31:32" customHeight="1">
@@ -5171,7 +5171,7 @@
         <v>273</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="222" spans="31:32" customHeight="1">
@@ -5179,7 +5179,7 @@
         <v>274</v>
       </c>
       <c r="AF222" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="223" spans="31:32" customHeight="1">
@@ -5187,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="224" spans="31:32" customHeight="1">
@@ -5195,7 +5195,7 @@
         <v>276</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="225" spans="31:32" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>278</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="227" spans="31:32" customHeight="1">
@@ -5227,7 +5227,7 @@
         <v>280</v>
       </c>
       <c r="AF228" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="229" spans="31:32" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="AF231" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="232" spans="31:32" customHeight="1">
@@ -5259,7 +5259,7 @@
         <v>284</v>
       </c>
       <c r="AF232" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="233" spans="31:32" customHeight="1">
@@ -5267,7 +5267,7 @@
         <v>285</v>
       </c>
       <c r="AF233" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="234" spans="31:32" customHeight="1">
@@ -5275,7 +5275,7 @@
         <v>286</v>
       </c>
       <c r="AF234" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="235" spans="31:32" customHeight="1">
@@ -5283,7 +5283,7 @@
         <v>287</v>
       </c>
       <c r="AF235" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="236" spans="31:32" customHeight="1">
@@ -5291,7 +5291,7 @@
         <v>288</v>
       </c>
       <c r="AF236" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="237" spans="31:32" customHeight="1">
@@ -5299,7 +5299,7 @@
         <v>289</v>
       </c>
       <c r="AF237" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="238" spans="31:32" customHeight="1">
@@ -5323,7 +5323,7 @@
         <v>292</v>
       </c>
       <c r="AF240" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="241" spans="31:32" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>293</v>
       </c>
       <c r="AF241" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="242" spans="31:32" customHeight="1">
@@ -5339,7 +5339,7 @@
         <v>294</v>
       </c>
       <c r="AF242" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="243" spans="31:32" customHeight="1">
@@ -5355,7 +5355,7 @@
         <v>296</v>
       </c>
       <c r="AF244" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="245" spans="31:32" customHeight="1">
@@ -5363,7 +5363,7 @@
         <v>297</v>
       </c>
       <c r="AF245" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="246" spans="31:32" customHeight="1">
@@ -5379,7 +5379,7 @@
         <v>299</v>
       </c>
       <c r="AF247" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="248" spans="31:32" customHeight="1">
@@ -5387,7 +5387,7 @@
         <v>300</v>
       </c>
       <c r="AF248" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="249" spans="31:32" customHeight="1">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="AF249" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="250" spans="31:32" customHeight="1">
@@ -5403,7 +5403,7 @@
         <v>302</v>
       </c>
       <c r="AF250" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="251" spans="31:32" customHeight="1">
@@ -5411,7 +5411,7 @@
         <v>303</v>
       </c>
       <c r="AF251" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="252" spans="31:32" customHeight="1">
@@ -5419,7 +5419,7 @@
         <v>304</v>
       </c>
       <c r="AF252" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="253" spans="31:32" customHeight="1">
@@ -5427,7 +5427,7 @@
         <v>305</v>
       </c>
       <c r="AF253" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="254" spans="31:32" customHeight="1">
@@ -5435,7 +5435,7 @@
         <v>306</v>
       </c>
       <c r="AF254" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="255" spans="31:32" customHeight="1">
@@ -5443,7 +5443,7 @@
         <v>307</v>
       </c>
       <c r="AF255" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="256" spans="31:32" customHeight="1">
@@ -5451,7 +5451,7 @@
         <v>308</v>
       </c>
       <c r="AF256" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="257" spans="31:32" customHeight="1">
@@ -5459,7 +5459,7 @@
         <v>309</v>
       </c>
       <c r="AF257" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="258" spans="31:32" customHeight="1">
@@ -5475,7 +5475,7 @@
         <v>311</v>
       </c>
       <c r="AF259" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="260" spans="31:32" customHeight="1">
@@ -5483,7 +5483,7 @@
         <v>312</v>
       </c>
       <c r="AF260" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="261" spans="31:32" customHeight="1">
@@ -5491,7 +5491,7 @@
         <v>313</v>
       </c>
       <c r="AF261" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="262" spans="31:32" customHeight="1">
@@ -5515,7 +5515,7 @@
         <v>316</v>
       </c>
       <c r="AF264" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="265" spans="31:32" customHeight="1">
@@ -5531,7 +5531,7 @@
         <v>318</v>
       </c>
       <c r="AF266" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="267" spans="31:32" customHeight="1">
@@ -5547,7 +5547,7 @@
         <v>320</v>
       </c>
       <c r="AF268" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="269" spans="31:32" customHeight="1">
@@ -5555,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="AF269" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="270" spans="31:32" customHeight="1">
@@ -5563,7 +5563,7 @@
         <v>322</v>
       </c>
       <c r="AF270" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="271" spans="31:32" customHeight="1">
@@ -5571,7 +5571,7 @@
         <v>323</v>
       </c>
       <c r="AF271" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="272" spans="31:32" customHeight="1">
@@ -5587,7 +5587,7 @@
         <v>325</v>
       </c>
       <c r="AF273" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="274" spans="31:32" customHeight="1">
@@ -5595,7 +5595,7 @@
         <v>326</v>
       </c>
       <c r="AF274" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="275" spans="31:32" customHeight="1">
@@ -5603,7 +5603,7 @@
         <v>327</v>
       </c>
       <c r="AF275" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="276" spans="31:32" customHeight="1">
@@ -5611,7 +5611,7 @@
         <v>328</v>
       </c>
       <c r="AF276" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="277" spans="31:32" customHeight="1">
@@ -5619,7 +5619,7 @@
         <v>329</v>
       </c>
       <c r="AF277" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="278" spans="31:32" customHeight="1">
@@ -5627,7 +5627,7 @@
         <v>330</v>
       </c>
       <c r="AF278" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="279" spans="31:32" customHeight="1">
@@ -5635,7 +5635,7 @@
         <v>331</v>
       </c>
       <c r="AF279" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="280" spans="31:32" customHeight="1">
@@ -5643,7 +5643,7 @@
         <v>332</v>
       </c>
       <c r="AF280" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="281" spans="31:32" customHeight="1">
@@ -5651,7 +5651,7 @@
         <v>333</v>
       </c>
       <c r="AF281" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="282" spans="31:32" customHeight="1">
@@ -5659,7 +5659,7 @@
         <v>334</v>
       </c>
       <c r="AF282" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="283" spans="31:32" customHeight="1">
@@ -5667,7 +5667,7 @@
         <v>335</v>
       </c>
       <c r="AF283" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="284" spans="31:32" customHeight="1">
@@ -5675,7 +5675,7 @@
         <v>336</v>
       </c>
       <c r="AF284" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="285" spans="31:32" customHeight="1">
@@ -5683,7 +5683,7 @@
         <v>337</v>
       </c>
       <c r="AF285" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="286" spans="31:32" customHeight="1">
@@ -5699,7 +5699,7 @@
         <v>339</v>
       </c>
       <c r="AF287" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="288" spans="31:32" customHeight="1">
@@ -5715,7 +5715,7 @@
         <v>341</v>
       </c>
       <c r="AF289" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="290" spans="31:32" customHeight="1">
@@ -5731,7 +5731,7 @@
         <v>343</v>
       </c>
       <c r="AF291" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="292" spans="31:32" customHeight="1">
@@ -5739,7 +5739,7 @@
         <v>344</v>
       </c>
       <c r="AF292" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="293" spans="31:32" customHeight="1">
@@ -5747,7 +5747,7 @@
         <v>345</v>
       </c>
       <c r="AF293" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="294" spans="31:32" customHeight="1">
@@ -5755,7 +5755,7 @@
         <v>346</v>
       </c>
       <c r="AF294" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="295" spans="31:32" customHeight="1">
@@ -5771,7 +5771,7 @@
         <v>348</v>
       </c>
       <c r="AF296" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="297" spans="31:32" customHeight="1">
@@ -5779,7 +5779,7 @@
         <v>349</v>
       </c>
       <c r="AF297" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="298" spans="31:32" customHeight="1">
@@ -5787,7 +5787,7 @@
         <v>350</v>
       </c>
       <c r="AF298" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="299" spans="31:32" customHeight="1">
@@ -5795,7 +5795,7 @@
         <v>351</v>
       </c>
       <c r="AF299" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="300" spans="31:32" customHeight="1">
@@ -5803,7 +5803,7 @@
         <v>352</v>
       </c>
       <c r="AF300" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="301" spans="31:32" customHeight="1">
@@ -5827,7 +5827,7 @@
         <v>355</v>
       </c>
       <c r="AF303" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="304" spans="31:32" customHeight="1">
@@ -5835,7 +5835,7 @@
         <v>356</v>
       </c>
       <c r="AF304" s="0" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="305" spans="31:32" customHeight="1">
@@ -5843,7 +5843,7 @@
         <v>357</v>
       </c>
       <c r="AF305" s="0" t="n">
-        <v>10000</v>
+        <v>10600</v>
       </c>
     </row>
   </sheetData>
